--- a/Maven-data-installation.xlsx
+++ b/Maven-data-installation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Dashboard-tool-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CCF2E2-C8B0-5548-90B7-5351B68851BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA20274-13F5-4B46-99BE-2852A78DB8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="417">
   <si>
     <t>MavenCode</t>
   </si>
@@ -109,7 +109,26 @@
     <t>https://drive.google.com/open?id=17osUtf40u39TIJ2A1CsBmKL-G2UtF_3o</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1D5_vDqfClBaYv3XrWYznJh3-qR91s3Uc, https://drive.google.com/open?id=1sEjmxaw2RjGaN-epW5ampHJcvFS-H9JN</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/open?id=1D5_vDqfClBaYv3XrWYznJh3-qR91s3Uc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1sCQ3Zlq0gVpUxWE59fWWgMl8k5vSCa0a</t>
@@ -127,7 +146,7 @@
     <t>https://drive.google.com/open?id=1z7l-KGZBQNCAgtETlwgVmy8KDS5KJA15</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1mzzU3ZrdTuj2NJp9imv9obGJJVQbFz1z, https://drive.google.com/open?id=1MQqjXGGeU5XdNQeTyp_EHvNcBhvpD5uR, https://drive.google.com/open?id=1GPfgsGTFAVBO0oJgQgMNG-ukXhvi8WqT</t>
+    <t>https://drive.google.com/open?id=1GPfgsGTFAVBO0oJgQgMNG-ukXhvi8WqT</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1ZjCd_j9scE5LVOfxz6h-1PnHfTDRGzkt</t>
@@ -139,7 +158,7 @@
     <t>https://drive.google.com/open?id=1_pmPOSoN07i908NIKF3hpfyWrHe_0GYa</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1wFoT_EsyBNUxueUV1LuzOmzukvN4W6qp, https://drive.google.com/open?id=1CzuJXWtepyNNvriTduBN4QDBka2pugqP</t>
+    <t>https://drive.google.com/open?id=1wFoT_EsyBNUxueUV1LuzOmzukvN4W6qp</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1kcf3TIMk_PUHODcHrrcYvCdUMJ0gTgGH</t>
@@ -154,10 +173,1142 @@
     <t>https://drive.google.com/open?id=1iIp6PjyIpDGhBbJFKoAuOt0Xty7AXmqo</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1s4WeggvhYZG4_I4fw10Tq23xNAwQyGfe, https://drive.google.com/open?id=1zVbwQQsMBNwYzm1QZ4sEKRZ_gDZMV_QL, https://drive.google.com/open?id=1CZ0wQz1K7hWB47SWegovQC62s7qt--d4</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/open?id=1s4WeggvhYZG4_I4fw10Tq23xNAwQyGfe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1_W9puX3EfnBxJ6L8lBl0Pai6FNLaC2p-</t>
+  </si>
+  <si>
+    <t>AS-Maven-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliance digital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharashtra </t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1zUrdnR4exlC4ytl3lC1R5mK84n375rSi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gGlQiaa_8l9r3vybjj62EZkltfFwtFFO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1oTAsNGPnOfmuDt5Gd_gNPksZifoIL-5n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instolation done </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1zUrdnR4exlC4ytl3lC1R5mK84n375rSi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1gGlQiaa_8l9r3vybjj62EZkltfFwtFFO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1oTAsNGPnOfmuDt5Gd_gNPksZifoIL-5n</t>
+  </si>
+  <si>
+    <t>AS-Maven-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vijay sales </t>
+  </si>
+  <si>
+    <t>PBNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pune </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1RnO1Dfmd4Yp4nJs3gpHZoU4vB4utyZ2C</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1p6ql70gFfnWSZ64A3HGEQ78p9GLmEkCG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17J4Chry8S31s_aHO29pVAjsGXeOjS3w2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1RnO1Dfmd4Yp4nJs3gpHZoU4vB4utyZ2C</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1p6ql70gFfnWSZ64A3HGEQ78p9GLmEkCG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=17J4Chry8S31s_aHO29pVAjsGXeOjS3w2</t>
+  </si>
+  <si>
+    <t>AS-Maven-8</t>
+  </si>
+  <si>
+    <t>TKQ7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1nP7HKj-_5RXw8FVpdihORSyutEF82ZBI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1AE30YoGOFBDiZIWV4hbgyTDiSFLzPmZE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1YcFQHYD-yt_RNxfh5FcKo2JMBrNT7oKz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1nP7HKj-_5RXw8FVpdihORSyutEF82ZBI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1AE30YoGOFBDiZIWV4hbgyTDiSFLzPmZE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1YcFQHYD-yt_RNxfh5FcKo2JMBrNT7oKz</t>
+  </si>
+  <si>
+    <t>AS-Maven-9</t>
+  </si>
+  <si>
+    <t>In500202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karnataka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangalore </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UZbgs4IvMzrwsam4CBDMXe2NFZ90133x</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1g0EWhXtfGGw_MKyOKMUtjTLGHyuHnOZv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1yQIkWNlV95oNMstedBK8SHwX26GXrd4f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1UZbgs4IvMzrwsam4CBDMXe2NFZ90133x</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1g0EWhXtfGGw_MKyOKMUtjTLGHyuHnOZv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1yQIkWNlV95oNMstedBK8SHwX26GXrd4f</t>
+  </si>
+  <si>
+    <t>AS-Maven-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croma </t>
+  </si>
+  <si>
+    <t>A156</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Exoy7bmFINqX_BrYR3hpWXyhhRN137-K</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aRor1I4EnNuXsldAP-49iw_Amt09yHLp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1yx2ASMwDgjUwQ_dTIT62MO0rqFgPLKsM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1Exoy7bmFINqX_BrYR3hpWXyhhRN137-K</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1aRor1I4EnNuXsldAP-49iw_Amt09yHLp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1yx2ASMwDgjUwQ_dTIT62MO0rqFgPLKsM</t>
+  </si>
+  <si>
+    <t>AS-Maven-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devi international </t>
+  </si>
+  <si>
+    <t>36, IN508147 GT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1nTu1uGvisAcakjH8VVR0EX77g2GnR1Ig</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1d8hC9r6r18069FW-jZnl1kVSY3_d5KWn</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1JuH9G6azz-i_08VWJRPps_BxCOr90gyd</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1nTu1uGvisAcakjH8VVR0EX77g2GnR1Ig</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1d8hC9r6r18069FW-jZnl1kVSY3_d5KWn</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1JuH9G6azz-i_08VWJRPps_BxCOr90gyd</t>
+  </si>
+  <si>
+    <t>AS-Maven-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pai international </t>
+  </si>
+  <si>
+    <t>IN501831</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gWAgFuEjKwA5EEGZpCATbwt8ERughKcp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1MbwTkt6s6b4Z1dwtpINNz_a-afoFMSdt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ozWM6ckRrna8T03T6LUG8XcOVS6JsoHK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1gWAgFuEjKwA5EEGZpCATbwt8ERughKcp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1MbwTkt6s6b4Z1dwtpINNz_a-afoFMSdt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1ozWM6ckRrna8T03T6LUG8XcOVS6JsoHK</t>
+  </si>
+  <si>
+    <t>AS-Maven-13</t>
+  </si>
+  <si>
+    <t>A117</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1v8FyKT9feCYxDdOgTHAk6aIjmjllOvAY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=123ddTXAxMZpOOSdMTUn2_7B0QCxjnwTP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1CRtqJOrUiSdn5nIM-70N-GJxlrrpU12l</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1v8FyKT9feCYxDdOgTHAk6aIjmjllOvAY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=123ddTXAxMZpOOSdMTUn2_7B0QCxjnwTP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1CRtqJOrUiSdn5nIM-70N-GJxlrrpU12l</t>
+  </si>
+  <si>
+    <t>AS-Maven-14</t>
+  </si>
+  <si>
+    <t>A045</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Xj4LimIPT4bUPl1j9l_F0F3BBtIUqPIb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Mgd64u8ZkaoLVYtOE3FeMKb-y8XJGKay</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ImTybRXLUJYuhpVcjs7M5m82gVpSpVHY</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1Xj4LimIPT4bUPl1j9l_F0F3BBtIUqPIb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1Mgd64u8ZkaoLVYtOE3FeMKb-y8XJGKay</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1ImTybRXLUJYuhpVcjs7M5m82gVpSpVHY</t>
+  </si>
+  <si>
+    <t>AS-Maven-15</t>
+  </si>
+  <si>
+    <t>TPN5</t>
+  </si>
+  <si>
+    <t>Material Not Received</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15L2_yuhrgqoCa9Q4Q8vWYZZ1f9phklIR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ew4YBVoAN9DvCgdXdGTb0ATiN1acOs4r</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1t_8d8XdSgdn2WmXiufE4FLpm4b7GXU4B</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=15L2_yuhrgqoCa9Q4Q8vWYZZ1f9phklIR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1ew4YBVoAN9DvCgdXdGTb0ATiN1acOs4r</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1t_8d8XdSgdn2WmXiufE4FLpm4b7GXU4B</t>
+  </si>
+  <si>
+    <t>AS-Maven-16</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1z1OZA1nbEshNAipuhwkfj-7t3G1jQ0zd</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1c5EL0ublDQ6Mi3UIGVzKgy7LxHYvMQou</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1oRQ0ojOvhrRkhFD4OxgTwI8aZz1D2HQw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1z1OZA1nbEshNAipuhwkfj-7t3G1jQ0zd</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1c5EL0ublDQ6Mi3UIGVzKgy7LxHYvMQou</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1oRQ0ojOvhrRkhFD4OxgTwI8aZz1D2HQw</t>
+  </si>
+  <si>
+    <t>AS-Maven-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliance digital  Hinjewadi </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1o7rnIFyNUAWoqnN7Ep7bJGQd0EHvBpAl</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1cv68zs6x4VQk-PKZ0xrFdWU5xVlCv50R</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_i7E8QH_LbpcfY5yY9zja0UvYJqi1ClT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1o7rnIFyNUAWoqnN7Ep7bJGQd0EHvBpAl</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1cv68zs6x4VQk-PKZ0xrFdWU5xVlCv50R</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1_i7E8QH_LbpcfY5yY9zja0UvYJqi1ClT</t>
+  </si>
+  <si>
+    <t>AS-Maven-18</t>
+  </si>
+  <si>
+    <t>A288</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1vh_1SI6AWyo8hWwU-IF-9C2UIW8D27Aa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=16KsHkZjvjmBwdAmscPfvz0iFSXhFjAMF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ZBxFmwMO_-9xMXZOFSO2RiCWbSTVw8e8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1vh_1SI6AWyo8hWwU-IF-9C2UIW8D27Aa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=16KsHkZjvjmBwdAmscPfvz0iFSXhFjAMF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1ZBxFmwMO_-9xMXZOFSO2RiCWbSTVw8e8</t>
+  </si>
+  <si>
+    <t>AS-Maven-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliance digital Hinjewadi </t>
+  </si>
+  <si>
+    <t>TG9N</t>
+  </si>
+  <si>
+    <t>OnePlus Counter Not Available</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1B_CQrfFpo0E4eVtip2Ff_h5pVjWNNJDi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15J0KDeQu0NOAjWkcEaALGzdJ8hx9wtuw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=10CwQZZLfwqMsZinBTjibaMv7zIr7y9Rc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1B_CQrfFpo0E4eVtip2Ff_h5pVjWNNJDi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=15J0KDeQu0NOAjWkcEaALGzdJ8hx9wtuw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=10CwQZZLfwqMsZinBTjibaMv7zIr7y9Rc</t>
+  </si>
+  <si>
+    <t>AS-Maven-20</t>
+  </si>
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1bXYthhZyi-FbvsuipsWFn-0jZCkvF7id</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1NuVlIHrT2Koso5ANccDujNhDCb2Z7odJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1byzB8OYtrebnDST8v-BDX62YtyGYAZN7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1bXYthhZyi-FbvsuipsWFn-0jZCkvF7id</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1NuVlIHrT2Koso5ANccDujNhDCb2Z7odJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1byzB8OYtrebnDST8v-BDX62YtyGYAZN7</t>
+  </si>
+  <si>
+    <t>AS-Maven-21</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realince </t>
+  </si>
+  <si>
+    <t>Print related issue</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1T35qM0xRlQPjqnKKcqy5FoAUIVhCXKJL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-pA2y16FY-Wsex6eK14JfHMUu8342Nny</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1paSBRFopRfAVu8kfnj0yKxIP7laVC0t3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1T35qM0xRlQPjqnKKcqy5FoAUIVhCXKJL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1-pA2y16FY-Wsex6eK14JfHMUu8342Nny</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1paSBRFopRfAVu8kfnj0yKxIP7laVC0t3</t>
+  </si>
+  <si>
+    <t>AS-Maven-22</t>
+  </si>
+  <si>
+    <t>IN501888</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1P_VdyYpvadpiEQmCGiBlKSLTYmDtNVMv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UJArNRR7RlTV9g_U4eV7qNN_TiD8Hnyf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-SRf33yA7pv6ixBZsDND1j_JsMLR9YBD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1P_VdyYpvadpiEQmCGiBlKSLTYmDtNVMv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1UJArNRR7RlTV9g_U4eV7qNN_TiD8Hnyf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1-SRf33yA7pv6ixBZsDND1j_JsMLR9YBD</t>
+  </si>
+  <si>
+    <t>AS-Maven-23</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1mgRrCPRpBczB5ZCRbquNCRIN5cfCQk16</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1IsqJP_l5gzkGihSC6J1PDWG__6DWm-vt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1EX2AeUTHNrZfyc2kjcB8BZtzJHbYBjZN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1mgRrCPRpBczB5ZCRbquNCRIN5cfCQk16</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1IsqJP_l5gzkGihSC6J1PDWG__6DWm-vt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1EX2AeUTHNrZfyc2kjcB8BZtzJHbYBjZN</t>
+  </si>
+  <si>
+    <t>AS-Maven-24</t>
+  </si>
+  <si>
+    <t>Bajaj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1QXYR5n9iz1fQGnjb-4KoejGa9HiyAC35</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19iJKY-HJhCTuN5jf-WaxcqiMtJQA1CLr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1BW_DcKxnMaREXizA7-Vl2sYoDwQ7XKh5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1QXYR5n9iz1fQGnjb-4KoejGa9HiyAC35</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=19iJKY-HJhCTuN5jf-WaxcqiMtJQA1CLr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1BW_DcKxnMaREXizA7-Vl2sYoDwQ7XKh5</t>
+  </si>
+  <si>
+    <t>AS-Maven-25</t>
+  </si>
+  <si>
+    <t>Top 10</t>
+  </si>
+  <si>
+    <t>T34w02</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1fG-yG6ZkYpMb3ZRRItH4r6YRQhEgZO3E</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UGR8BWZ6LNiaZu62HfBcymZwH3TvxZCC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=12vzzek6GMTIwFp-vjq5pV358XMpkrrZb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1fG-yG6ZkYpMb3ZRRItH4r6YRQhEgZO3E</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1UGR8BWZ6LNiaZu62HfBcymZwH3TvxZCC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=12vzzek6GMTIwFp-vjq5pV358XMpkrrZb</t>
+  </si>
+  <si>
+    <t>AS-Maven-26</t>
+  </si>
+  <si>
+    <t>In500201</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1bZsaAEoTgO5uPzXMEAFva_NTA-CZTYPZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1tXCEr4Qnt7t5EIhIKEBjDGnjtCCSxjBX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1FArWyaNKQanCv-yEW0T5JUkh15r_WzDo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1bZsaAEoTgO5uPzXMEAFva_NTA-CZTYPZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1tXCEr4Qnt7t5EIhIKEBjDGnjtCCSxjBX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1FArWyaNKQanCv-yEW0T5JUkh15r_WzDo</t>
+  </si>
+  <si>
+    <t>AS-Maven-27</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1peYjqDbNVrJ-nOuXNaFepH_llgrUeAxr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1RL2fKUMzhrDmNkrc1F3O84ZbO_nw_UrG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Vb-LeV8UfvCAnXZA5R4uwGr0TdNTIHY5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1peYjqDbNVrJ-nOuXNaFepH_llgrUeAxr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1RL2fKUMzhrDmNkrc1F3O84ZbO_nw_UrG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1Vb-LeV8UfvCAnXZA5R4uwGr0TdNTIHY5</t>
+  </si>
+  <si>
+    <t>AS-Maven-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vijay sales dange chowk aundh ravet road </t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=182KIZUrEqF8zJdYGrfImpEJR3RX0wiGO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=16Ieozxhh5_6ah4I6YON39tDrKVC5Ptsg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Z_J_G6YLPAnICPZFh5GukuZNIElDrQ7n</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=182KIZUrEqF8zJdYGrfImpEJR3RX0wiGO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=16Ieozxhh5_6ah4I6YON39tDrKVC5Ptsg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1Z_J_G6YLPAnICPZFh5GukuZNIElDrQ7n</t>
+  </si>
+  <si>
+    <t>AS-Maven-29</t>
+  </si>
+  <si>
+    <t>Vijay sales</t>
+  </si>
+  <si>
+    <t>TPJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1MNktXN_U237-CqJ5dvhav78-iwdZRBRQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1uVH1-NfmeJq5UWpBIy0MzMFiJJ5ZzCHY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=117pRsixKOrt-GbtrdJJvjny2WhnrwBRw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1MNktXN_U237-CqJ5dvhav78-iwdZRBRQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1uVH1-NfmeJq5UWpBIy0MzMFiJJ5ZzCHY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=117pRsixKOrt-GbtrdJJvjny2WhnrwBRw</t>
+  </si>
+  <si>
+    <t>AS-Maven-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliance digital elpro mall Chinchwad </t>
+  </si>
+  <si>
+    <t>TX08</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1WJ_ulZV65EZsubO45MTyDxPpXBUIUPjz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1NyQ-9P4jiOnRbZVs3c8xMjZqfz1wDZmL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aJaGK37cPGPPEcqbjpo77J6vzp5AG1NF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1WJ_ulZV65EZsubO45MTyDxPpXBUIUPjz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1NyQ-9P4jiOnRbZVs3c8xMjZqfz1wDZmL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1aJaGK37cPGPPEcqbjpo77J6vzp5AG1NF</t>
+  </si>
+  <si>
+    <t>AS-Maven-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One plus </t>
+  </si>
+  <si>
+    <t>MTES05</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1IKS4DWciYOFM9Kp_KEo16Lj-jc_XkeLl</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1nBPqtFBYtsZV7DLeCVJ-AAzOGhmv-5iY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=108zGz6am52bcNjgHogfsK1pP3UAJ2Ng1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1IKS4DWciYOFM9Kp_KEo16Lj-jc_XkeLl</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1nBPqtFBYtsZV7DLeCVJ-AAzOGhmv-5iY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=108zGz6am52bcNjgHogfsK1pP3UAJ2Ng1</t>
+  </si>
+  <si>
+    <t>AS-Maven-32</t>
+  </si>
+  <si>
+    <t>A029</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1oSqUXCFTQ4rEh7xhynCkitThemVLVxqI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1C2LGEETdtCmQuZIivC_upnIHLqhxhAxg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1mJ21FHyxBWM-KWWqM0iSXpcUaRH1I7NW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1oSqUXCFTQ4rEh7xhynCkitThemVLVxqI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1C2LGEETdtCmQuZIivC_upnIHLqhxhAxg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1mJ21FHyxBWM-KWWqM0iSXpcUaRH1I7NW</t>
+  </si>
+  <si>
+    <t>AS-Maven-33</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15G7435ysVx2A1n0IpSZIZ88Xypnr5kcv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1feXZVIZQe571V9oTR9hR7FBRXE7LJabo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1KNqJriQgFmQ-vDco7geGg8sbRERs9ayE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=15G7435ysVx2A1n0IpSZIZ88Xypnr5kcv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1feXZVIZQe571V9oTR9hR7FBRXE7LJabo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1KNqJriQgFmQ-vDco7geGg8sbRERs9ayE</t>
+  </si>
+  <si>
+    <t>AS-Maven-34</t>
+  </si>
+  <si>
+    <t>Reliance digital near Pantaloons Khandoba Mal akurdi</t>
+  </si>
+  <si>
+    <t>T768</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1SPL_p3gVeTaz0kX6Y7TMeOLUpaBxzz40</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1hzyn1DrX52yvOgeJCAOUXL00_ZVvTu2A</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13BoTXbsN_bJ0MD8n17qURSeN_fSAiKss</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1SPL_p3gVeTaz0kX6Y7TMeOLUpaBxzz40</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1hzyn1DrX52yvOgeJCAOUXL00_ZVvTu2A</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=13BoTXbsN_bJ0MD8n17qURSeN_fSAiKss</t>
+  </si>
+  <si>
+    <t>AS-Maven-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vijay sales Bhosari </t>
+  </si>
+  <si>
+    <t>PBHO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Eum5B2a07xZcso-IJWXKH58813EFuhxo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=14vIG2VGywOnvPWWb-NAjRpQ01DcOdf3I</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1YGEZhPsJC2UHqcoKKMEyjL-6ckpzmdl3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1Eum5B2a07xZcso-IJWXKH58813EFuhxo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=14vIG2VGywOnvPWWb-NAjRpQ01DcOdf3I</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1YGEZhPsJC2UHqcoKKMEyjL-6ckpzmdl3</t>
+  </si>
+  <si>
+    <t>AS-Maven-36</t>
+  </si>
+  <si>
+    <t>Classic Enterprises near Om apartment dighi road Bhosari</t>
+  </si>
+  <si>
+    <t>IN522314</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rUDqETp-nvuCb3A0APnCN6ctmaElxQH_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1NCjNftwEGZNMDAUVohAkfwb39iAHTXYs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1CwKoSw6uiJNUAFuKnqu0FJqRGNa01juQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1rUDqETp-nvuCb3A0APnCN6ctmaElxQH_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1NCjNftwEGZNMDAUVohAkfwb39iAHTXYs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1CwKoSw6uiJNUAFuKnqu0FJqRGNa01juQ</t>
+  </si>
+  <si>
+    <t>AS-Maven-37</t>
+  </si>
+  <si>
+    <t>Friends mobile Bhosari ganvane vasti PCMC bus stop</t>
+  </si>
+  <si>
+    <t>IN522</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1geqsMQkR-WaA0WNh_mYI4yrqUhTXhhns</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1it2RvuMQygft6CflzBkpOI1SRCIFrXKR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1j-_vwe1yt033wF7Eay4WtmyUNkiCqZ8j</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1geqsMQkR-WaA0WNh_mYI4yrqUhTXhhns</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1it2RvuMQygft6CflzBkpOI1SRCIFrXKR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1j-_vwe1yt033wF7Eay4WtmyUNkiCqZ8j</t>
+  </si>
+  <si>
+    <t>AS-Maven-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croma pimpri </t>
+  </si>
+  <si>
+    <t>A038</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13OjkU-0-3aIRHm9kI_NS6YZZvKA3QWbL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1nwguZiM_5JB_UIeYJBKOIX-lW1i2hIy3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1OwSyJCB22eKnZH7AbZe-yH9yRVpHeY-E</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=13OjkU-0-3aIRHm9kI_NS6YZZvKA3QWbL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1nwguZiM_5JB_UIeYJBKOIX-lW1i2hIy3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1OwSyJCB22eKnZH7AbZe-yH9yRVpHeY-E</t>
+  </si>
+  <si>
+    <t>AS-Maven-39</t>
+  </si>
+  <si>
+    <t>Vasai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1xd6SHSljAnMrtNgTEIDNhtYeWg3g61Ez</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1s28TgS2sB3RJMKrZdSD16UOGTNbl-GTz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1bSeJJoPra1JmM5BSHoWpVu7mLEmod79N</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1xd6SHSljAnMrtNgTEIDNhtYeWg3g61Ez</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1s28TgS2sB3RJMKrZdSD16UOGTNbl-GTz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1bSeJJoPra1JmM5BSHoWpVu7mLEmod79N</t>
+  </si>
+  <si>
+    <t>AS-Maven-40</t>
+  </si>
+  <si>
+    <t>A017</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1JkAwIRQPjEhzI47ZzT6vMh7nJgHVNZmA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11gyW0cTJ8BWU97ysgr3G9AHtFGQ4NDJT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1WosYwk8ghynzCBe8RC13RSmETBx4crnf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1JkAwIRQPjEhzI47ZzT6vMh7nJgHVNZmA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=11gyW0cTJ8BWU97ysgr3G9AHtFGQ4NDJT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1WosYwk8ghynzCBe8RC13RSmETBx4crnf</t>
+  </si>
+  <si>
+    <t>AS-Maven-41</t>
+  </si>
+  <si>
+    <t>Mrd</t>
+  </si>
+  <si>
+    <t>Size issue</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_JjJoY9mzm23t8swcML1SckrX5dn7IU4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=14N_ldcW5lTPvbSjMsUd4lPBnnTfOxyxm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1G1gLKoGPM9JfmXLizFhGE0DD-Ww35nrq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1_JjJoY9mzm23t8swcML1SckrX5dn7IU4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=14N_ldcW5lTPvbSjMsUd4lPBnnTfOxyxm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1G1gLKoGPM9JfmXLizFhGE0DD-Ww35nrq</t>
+  </si>
+  <si>
+    <t>AS-Maven-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KD3  mobile pimpri sai chowk </t>
+  </si>
+  <si>
+    <t>IN522600</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kmTXZYVpOJZKe53tGM3uxkf1cSFiTcQY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1w7cwmNS2a_nfUGmSVtVYdGJHKODrTyus</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1BrLM-1yDZ0vhZZfPxVQy36Jy0YvYDvLj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1kmTXZYVpOJZKe53tGM3uxkf1cSFiTcQY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1w7cwmNS2a_nfUGmSVtVYdGJHKODrTyus</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1BrLM-1yDZ0vhZZfPxVQy36Jy0YvYDvLj</t>
+  </si>
+  <si>
+    <t>AS-Maven-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliance </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1DjPewePmi14wWU6ajKOVG8AZGvu7yYqF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1yHFfQRwF5zx9vGVLYNms9Ky1i1Kl3INm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wZGq7V3OLWx6ns0zTucbCHLuYofHFAaP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1DjPewePmi14wWU6ajKOVG8AZGvu7yYqF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1yHFfQRwF5zx9vGVLYNms9Ky1i1Kl3INm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1wZGq7V3OLWx6ns0zTucbCHLuYofHFAaP</t>
+  </si>
+  <si>
+    <t>AS-Maven-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.K.Mobile </t>
+  </si>
+  <si>
+    <t>IN511825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gujrat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vadodara </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ON-T9DN57s4klKS9KG4NyUJU-plCQbv0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1leypGB5i6WdfIV2Rpx6hY5b1f47JGFJY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19UX8SOjhrc5a4rJz6dg3HZCQ7v3cdooB</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1ON-T9DN57s4klKS9KG4NyUJU-plCQbv0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1leypGB5i6WdfIV2Rpx6hY5b1f47JGFJY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=19UX8SOjhrc5a4rJz6dg3HZCQ7v3cdooB</t>
+  </si>
+  <si>
+    <t>AS-Maven-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vijay sales rahatani </t>
+  </si>
+  <si>
+    <t>PAAHT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aNDitkj49zmpYSBZOk9u4Y_dTWMyuWAT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1hHkmWSQyylncz8azbzy-EmcIk3H8MGuZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1LOoOMOLnSm-Ns6Pde0fm0QgIyEBzAgLZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1aNDitkj49zmpYSBZOk9u4Y_dTWMyuWAT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1hHkmWSQyylncz8azbzy-EmcIk3H8MGuZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1LOoOMOLnSm-Ns6Pde0fm0QgIyEBzAgLZ</t>
+  </si>
+  <si>
+    <t>AS-Maven-46</t>
+  </si>
+  <si>
+    <t>TEG6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1MhW4arXYtgRm4kkcsqg6I-TQx8ow41DI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=10Pnk5f6OdSMuvGadEnH_OPl9DpaNAnfr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1vW7pbzsHQ2PO8QuegjaWv5aiMMrD9etV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1MhW4arXYtgRm4kkcsqg6I-TQx8ow41DI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=10Pnk5f6OdSMuvGadEnH_OPl9DpaNAnfr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1vW7pbzsHQ2PO8QuegjaWv5aiMMrD9etV</t>
+  </si>
+  <si>
+    <t>AS-Maven-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bansal telecom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delhi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohini </t>
+  </si>
+  <si>
+    <t>Permission issue at Store</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19fKc9W1joxJDtNZblPjGLyC5JAS4Q_am</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1s5RZQsBMcCktL9z1Tlp7SnHjqyfFZCh0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1cVLfOiCQ5M_XWUs6QXnO5oJecwkI7R9N</t>
+  </si>
+  <si>
+    <t>Yas</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=19fKc9W1joxJDtNZblPjGLyC5JAS4Q_am</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1s5RZQsBMcCktL9z1Tlp7SnHjqyfFZCh0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1cVLfOiCQ5M_XWUs6QXnO5oJecwkI7R9N</t>
   </si>
 </sst>
 </file>
@@ -167,7 +1318,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -193,13 +1344,55 @@
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -214,14 +1407,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +1433,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,8 +1506,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:S6" headerRowCount="0">
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:EO48" headerRowCount="0">
+  <tableColumns count="145">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
@@ -333,6 +1527,132 @@
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Column26"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Column27"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Column28"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Column29"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Column30"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Column31"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Column32"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Column33"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Column34"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Column35"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Column36"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Column37"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Column38"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Column39"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Column40"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Column41"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Column42"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Column43"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Column44"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Column45"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Column46"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Column47"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Column48"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Column49"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Column50"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Column51"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Column52"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Column53"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Column54"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Column55"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Column56"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Column57"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Column58"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Column59"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Column60"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Column61"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Column62"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Column63"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="Column64"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Column65"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Column66"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="Column67"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Column68"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="Column69"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Column70"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Column71"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Column72"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Column73"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Column74"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Column75"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Column76"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Column77"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Column78"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Column79"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="Column80"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="Column81"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="Column82"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" name="Column83"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="Column84"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" name="Column85"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" name="Column86"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="Column87"/>
+    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0000-000058000000}" name="Column88"/>
+    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0000-000059000000}" name="Column89"/>
+    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0000-00005A000000}" name="Column90"/>
+    <tableColumn id="91" xr3:uid="{00000000-0010-0000-0000-00005B000000}" name="Column91"/>
+    <tableColumn id="92" xr3:uid="{00000000-0010-0000-0000-00005C000000}" name="Column92"/>
+    <tableColumn id="93" xr3:uid="{00000000-0010-0000-0000-00005D000000}" name="Column93"/>
+    <tableColumn id="94" xr3:uid="{00000000-0010-0000-0000-00005E000000}" name="Column94"/>
+    <tableColumn id="95" xr3:uid="{00000000-0010-0000-0000-00005F000000}" name="Column95"/>
+    <tableColumn id="96" xr3:uid="{00000000-0010-0000-0000-000060000000}" name="Column96"/>
+    <tableColumn id="97" xr3:uid="{00000000-0010-0000-0000-000061000000}" name="Column97"/>
+    <tableColumn id="98" xr3:uid="{00000000-0010-0000-0000-000062000000}" name="Column98"/>
+    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0000-000063000000}" name="Column99"/>
+    <tableColumn id="100" xr3:uid="{00000000-0010-0000-0000-000064000000}" name="Column100"/>
+    <tableColumn id="101" xr3:uid="{00000000-0010-0000-0000-000065000000}" name="Column101"/>
+    <tableColumn id="102" xr3:uid="{00000000-0010-0000-0000-000066000000}" name="Column102"/>
+    <tableColumn id="103" xr3:uid="{00000000-0010-0000-0000-000067000000}" name="Column103"/>
+    <tableColumn id="104" xr3:uid="{00000000-0010-0000-0000-000068000000}" name="Column104"/>
+    <tableColumn id="105" xr3:uid="{00000000-0010-0000-0000-000069000000}" name="Column105"/>
+    <tableColumn id="106" xr3:uid="{00000000-0010-0000-0000-00006A000000}" name="Column106"/>
+    <tableColumn id="107" xr3:uid="{00000000-0010-0000-0000-00006B000000}" name="Column107"/>
+    <tableColumn id="108" xr3:uid="{00000000-0010-0000-0000-00006C000000}" name="Column108"/>
+    <tableColumn id="109" xr3:uid="{00000000-0010-0000-0000-00006D000000}" name="Column109"/>
+    <tableColumn id="110" xr3:uid="{00000000-0010-0000-0000-00006E000000}" name="Column110"/>
+    <tableColumn id="111" xr3:uid="{00000000-0010-0000-0000-00006F000000}" name="Column111"/>
+    <tableColumn id="112" xr3:uid="{00000000-0010-0000-0000-000070000000}" name="Column112"/>
+    <tableColumn id="113" xr3:uid="{00000000-0010-0000-0000-000071000000}" name="Column113"/>
+    <tableColumn id="114" xr3:uid="{00000000-0010-0000-0000-000072000000}" name="Column114"/>
+    <tableColumn id="115" xr3:uid="{00000000-0010-0000-0000-000073000000}" name="Column115"/>
+    <tableColumn id="116" xr3:uid="{00000000-0010-0000-0000-000074000000}" name="Column116"/>
+    <tableColumn id="117" xr3:uid="{00000000-0010-0000-0000-000075000000}" name="Column117"/>
+    <tableColumn id="118" xr3:uid="{00000000-0010-0000-0000-000076000000}" name="Column118"/>
+    <tableColumn id="119" xr3:uid="{00000000-0010-0000-0000-000077000000}" name="Column119"/>
+    <tableColumn id="120" xr3:uid="{00000000-0010-0000-0000-000078000000}" name="Column120"/>
+    <tableColumn id="121" xr3:uid="{00000000-0010-0000-0000-000079000000}" name="Column121"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0000-00007A000000}" name="Column122"/>
+    <tableColumn id="123" xr3:uid="{00000000-0010-0000-0000-00007B000000}" name="Column123"/>
+    <tableColumn id="124" xr3:uid="{00000000-0010-0000-0000-00007C000000}" name="Column124"/>
+    <tableColumn id="125" xr3:uid="{00000000-0010-0000-0000-00007D000000}" name="Column125"/>
+    <tableColumn id="126" xr3:uid="{00000000-0010-0000-0000-00007E000000}" name="Column126"/>
+    <tableColumn id="127" xr3:uid="{00000000-0010-0000-0000-00007F000000}" name="Column127"/>
+    <tableColumn id="128" xr3:uid="{00000000-0010-0000-0000-000080000000}" name="Column128"/>
+    <tableColumn id="129" xr3:uid="{00000000-0010-0000-0000-000081000000}" name="Column129"/>
+    <tableColumn id="130" xr3:uid="{00000000-0010-0000-0000-000082000000}" name="Column130"/>
+    <tableColumn id="131" xr3:uid="{00000000-0010-0000-0000-000083000000}" name="Column131"/>
+    <tableColumn id="132" xr3:uid="{00000000-0010-0000-0000-000084000000}" name="Column132"/>
+    <tableColumn id="133" xr3:uid="{00000000-0010-0000-0000-000085000000}" name="Column133"/>
+    <tableColumn id="134" xr3:uid="{00000000-0010-0000-0000-000086000000}" name="Column134"/>
+    <tableColumn id="135" xr3:uid="{00000000-0010-0000-0000-000087000000}" name="Column135"/>
+    <tableColumn id="136" xr3:uid="{00000000-0010-0000-0000-000088000000}" name="Column136"/>
+    <tableColumn id="137" xr3:uid="{00000000-0010-0000-0000-000089000000}" name="Column137"/>
+    <tableColumn id="138" xr3:uid="{00000000-0010-0000-0000-00008A000000}" name="Column138"/>
+    <tableColumn id="139" xr3:uid="{00000000-0010-0000-0000-00008B000000}" name="Column139"/>
+    <tableColumn id="140" xr3:uid="{00000000-0010-0000-0000-00008C000000}" name="Column140"/>
+    <tableColumn id="141" xr3:uid="{00000000-0010-0000-0000-00008D000000}" name="Column141"/>
+    <tableColumn id="142" xr3:uid="{00000000-0010-0000-0000-00008E000000}" name="Column142"/>
+    <tableColumn id="143" xr3:uid="{00000000-0010-0000-0000-00008F000000}" name="Column143"/>
+    <tableColumn id="144" xr3:uid="{00000000-0010-0000-0000-000090000000}" name="Column144"/>
+    <tableColumn id="145" xr3:uid="{00000000-0010-0000-0000-000091000000}" name="Column145"/>
   </tableColumns>
   <tableStyleInfo name="Form responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -544,11 +1864,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:EO48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -558,292 +1878,5809 @@
     <col min="5" max="7" width="18.83203125" customWidth="1"/>
     <col min="8" max="8" width="37.6640625" customWidth="1"/>
     <col min="9" max="9" width="28.83203125" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" customWidth="1"/>
+    <col min="10" max="10" width="85.33203125" customWidth="1"/>
+    <col min="11" max="11" width="82.6640625" customWidth="1"/>
     <col min="12" max="12" width="32" customWidth="1"/>
     <col min="13" max="13" width="24.6640625" customWidth="1"/>
-    <col min="14" max="19" width="18.83203125" customWidth="1"/>
+    <col min="14" max="145" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:145" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BO1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BS1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BT1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BU1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BW1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BY1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BZ1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CA1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CC1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CD1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CE1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CF1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CG1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CI1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CJ1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CK1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CL1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CM1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CN1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CP1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CQ1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CR1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CS1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CT1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CU1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CV1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CW1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CX1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DA1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DB1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DD1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DE1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DH1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DI1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DJ1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DK1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DL1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DM1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DN1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DO1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DP1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DQ1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DR1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DS1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DT1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DU1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DV1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DW1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DX1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DY1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DZ1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EA1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EB1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EC1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="ED1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EE1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EF1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EG1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EH1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EI1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EJ1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EK1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EL1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EM1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EN1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EO1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>45966.580692430551</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+      <c r="BP2" s="5"/>
+      <c r="BQ2" s="5"/>
+      <c r="BR2" s="5"/>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="5"/>
+      <c r="BU2" s="5"/>
+      <c r="BV2" s="5"/>
+      <c r="BW2" s="5"/>
+      <c r="BX2" s="5"/>
+      <c r="BY2" s="5"/>
+      <c r="BZ2" s="5"/>
+      <c r="CA2" s="5"/>
+      <c r="CB2" s="5"/>
+      <c r="CC2" s="5"/>
+      <c r="CD2" s="5"/>
+      <c r="CE2" s="5"/>
+      <c r="CF2" s="5"/>
+      <c r="CG2" s="5"/>
+      <c r="CH2" s="5"/>
+      <c r="CI2" s="5"/>
+      <c r="CJ2" s="5"/>
+      <c r="CK2" s="5"/>
+      <c r="CL2" s="5"/>
+      <c r="CM2" s="5"/>
+      <c r="CN2" s="5"/>
+      <c r="CO2" s="5"/>
+      <c r="CP2" s="5"/>
+      <c r="CQ2" s="5"/>
+      <c r="CR2" s="5"/>
+      <c r="CS2" s="5"/>
+      <c r="CT2" s="5"/>
+      <c r="CU2" s="5"/>
+      <c r="CV2" s="5"/>
+      <c r="CW2" s="5"/>
+      <c r="CX2" s="5"/>
+      <c r="CY2" s="5"/>
+      <c r="CZ2" s="5"/>
+      <c r="DA2" s="5"/>
+      <c r="DB2" s="5"/>
+      <c r="DC2" s="5"/>
+      <c r="DD2" s="5"/>
+      <c r="DE2" s="5"/>
+      <c r="DF2" s="5"/>
+      <c r="DG2" s="5"/>
+      <c r="DH2" s="5"/>
+      <c r="DI2" s="5"/>
+      <c r="DJ2" s="5"/>
+      <c r="DK2" s="5"/>
+      <c r="DL2" s="5"/>
+      <c r="DM2" s="5"/>
+      <c r="DN2" s="5"/>
+      <c r="DO2" s="5"/>
+      <c r="DP2" s="5"/>
+      <c r="DQ2" s="5"/>
+      <c r="DR2" s="5"/>
+      <c r="DS2" s="5"/>
+      <c r="DT2" s="5"/>
+      <c r="DU2" s="5"/>
+      <c r="DV2" s="5"/>
+      <c r="DW2" s="5"/>
+      <c r="DX2" s="5"/>
+      <c r="DY2" s="5"/>
+      <c r="DZ2" s="5"/>
+      <c r="EA2" s="5"/>
+      <c r="EB2" s="5"/>
+      <c r="EC2" s="5"/>
+      <c r="ED2" s="5"/>
+      <c r="EE2" s="5"/>
+      <c r="EF2" s="5"/>
+      <c r="EG2" s="5"/>
+      <c r="EH2" s="5"/>
+      <c r="EI2" s="5"/>
+      <c r="EJ2" s="5"/>
+      <c r="EK2" s="5"/>
+      <c r="EL2" s="5"/>
+      <c r="EM2" s="5"/>
+      <c r="EN2" s="5"/>
+      <c r="EO2" s="5"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>45966.615813229168</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>8687</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="5"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5"/>
+      <c r="CH3" s="5"/>
+      <c r="CI3" s="5"/>
+      <c r="CJ3" s="5"/>
+      <c r="CK3" s="5"/>
+      <c r="CL3" s="5"/>
+      <c r="CM3" s="5"/>
+      <c r="CN3" s="5"/>
+      <c r="CO3" s="5"/>
+      <c r="CP3" s="5"/>
+      <c r="CQ3" s="5"/>
+      <c r="CR3" s="5"/>
+      <c r="CS3" s="5"/>
+      <c r="CT3" s="5"/>
+      <c r="CU3" s="5"/>
+      <c r="CV3" s="5"/>
+      <c r="CW3" s="5"/>
+      <c r="CX3" s="5"/>
+      <c r="CY3" s="5"/>
+      <c r="CZ3" s="5"/>
+      <c r="DA3" s="5"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
+      <c r="DE3" s="5"/>
+      <c r="DF3" s="5"/>
+      <c r="DG3" s="5"/>
+      <c r="DH3" s="5"/>
+      <c r="DI3" s="5"/>
+      <c r="DJ3" s="5"/>
+      <c r="DK3" s="5"/>
+      <c r="DL3" s="5"/>
+      <c r="DM3" s="5"/>
+      <c r="DN3" s="5"/>
+      <c r="DO3" s="5"/>
+      <c r="DP3" s="5"/>
+      <c r="DQ3" s="5"/>
+      <c r="DR3" s="5"/>
+      <c r="DS3" s="5"/>
+      <c r="DT3" s="5"/>
+      <c r="DU3" s="5"/>
+      <c r="DV3" s="5"/>
+      <c r="DW3" s="5"/>
+      <c r="DX3" s="5"/>
+      <c r="DY3" s="5"/>
+      <c r="DZ3" s="5"/>
+      <c r="EA3" s="5"/>
+      <c r="EB3" s="5"/>
+      <c r="EC3" s="5"/>
+      <c r="ED3" s="5"/>
+      <c r="EE3" s="5"/>
+      <c r="EF3" s="5"/>
+      <c r="EG3" s="5"/>
+      <c r="EH3" s="5"/>
+      <c r="EI3" s="5"/>
+      <c r="EJ3" s="5"/>
+      <c r="EK3" s="5"/>
+      <c r="EL3" s="5"/>
+      <c r="EM3" s="5"/>
+      <c r="EN3" s="5"/>
+      <c r="EO3" s="5"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>45966.71735126157</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="5"/>
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5"/>
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5"/>
+      <c r="CN4" s="5"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="5"/>
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="5"/>
+      <c r="CS4" s="5"/>
+      <c r="CT4" s="5"/>
+      <c r="CU4" s="5"/>
+      <c r="CV4" s="5"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="5"/>
+      <c r="CZ4" s="5"/>
+      <c r="DA4" s="5"/>
+      <c r="DB4" s="5"/>
+      <c r="DC4" s="5"/>
+      <c r="DD4" s="5"/>
+      <c r="DE4" s="5"/>
+      <c r="DF4" s="5"/>
+      <c r="DG4" s="5"/>
+      <c r="DH4" s="5"/>
+      <c r="DI4" s="5"/>
+      <c r="DJ4" s="5"/>
+      <c r="DK4" s="5"/>
+      <c r="DL4" s="5"/>
+      <c r="DM4" s="5"/>
+      <c r="DN4" s="5"/>
+      <c r="DO4" s="5"/>
+      <c r="DP4" s="5"/>
+      <c r="DQ4" s="5"/>
+      <c r="DR4" s="5"/>
+      <c r="DS4" s="5"/>
+      <c r="DT4" s="5"/>
+      <c r="DU4" s="5"/>
+      <c r="DV4" s="5"/>
+      <c r="DW4" s="5"/>
+      <c r="DX4" s="5"/>
+      <c r="DY4" s="5"/>
+      <c r="DZ4" s="5"/>
+      <c r="EA4" s="5"/>
+      <c r="EB4" s="5"/>
+      <c r="EC4" s="5"/>
+      <c r="ED4" s="5"/>
+      <c r="EE4" s="5"/>
+      <c r="EF4" s="5"/>
+      <c r="EG4" s="5"/>
+      <c r="EH4" s="5"/>
+      <c r="EI4" s="5"/>
+      <c r="EJ4" s="5"/>
+      <c r="EK4" s="5"/>
+      <c r="EL4" s="5"/>
+      <c r="EM4" s="5"/>
+      <c r="EN4" s="5"/>
+      <c r="EO4" s="5"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>45966.757384803241</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>8636</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5"/>
+      <c r="BK5" s="5"/>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="5"/>
+      <c r="BO5" s="5"/>
+      <c r="BP5" s="5"/>
+      <c r="BQ5" s="5"/>
+      <c r="BR5" s="5"/>
+      <c r="BS5" s="5"/>
+      <c r="BT5" s="5"/>
+      <c r="BU5" s="5"/>
+      <c r="BV5" s="5"/>
+      <c r="BW5" s="5"/>
+      <c r="BX5" s="5"/>
+      <c r="BY5" s="5"/>
+      <c r="BZ5" s="5"/>
+      <c r="CA5" s="5"/>
+      <c r="CB5" s="5"/>
+      <c r="CC5" s="5"/>
+      <c r="CD5" s="5"/>
+      <c r="CE5" s="5"/>
+      <c r="CF5" s="5"/>
+      <c r="CG5" s="5"/>
+      <c r="CH5" s="5"/>
+      <c r="CI5" s="5"/>
+      <c r="CJ5" s="5"/>
+      <c r="CK5" s="5"/>
+      <c r="CL5" s="5"/>
+      <c r="CM5" s="5"/>
+      <c r="CN5" s="5"/>
+      <c r="CO5" s="5"/>
+      <c r="CP5" s="5"/>
+      <c r="CQ5" s="5"/>
+      <c r="CR5" s="5"/>
+      <c r="CS5" s="5"/>
+      <c r="CT5" s="5"/>
+      <c r="CU5" s="5"/>
+      <c r="CV5" s="5"/>
+      <c r="CW5" s="5"/>
+      <c r="CX5" s="5"/>
+      <c r="CY5" s="5"/>
+      <c r="CZ5" s="5"/>
+      <c r="DA5" s="5"/>
+      <c r="DB5" s="5"/>
+      <c r="DC5" s="5"/>
+      <c r="DD5" s="5"/>
+      <c r="DE5" s="5"/>
+      <c r="DF5" s="5"/>
+      <c r="DG5" s="5"/>
+      <c r="DH5" s="5"/>
+      <c r="DI5" s="5"/>
+      <c r="DJ5" s="5"/>
+      <c r="DK5" s="5"/>
+      <c r="DL5" s="5"/>
+      <c r="DM5" s="5"/>
+      <c r="DN5" s="5"/>
+      <c r="DO5" s="5"/>
+      <c r="DP5" s="5"/>
+      <c r="DQ5" s="5"/>
+      <c r="DR5" s="5"/>
+      <c r="DS5" s="5"/>
+      <c r="DT5" s="5"/>
+      <c r="DU5" s="5"/>
+      <c r="DV5" s="5"/>
+      <c r="DW5" s="5"/>
+      <c r="DX5" s="5"/>
+      <c r="DY5" s="5"/>
+      <c r="DZ5" s="5"/>
+      <c r="EA5" s="5"/>
+      <c r="EB5" s="5"/>
+      <c r="EC5" s="5"/>
+      <c r="ED5" s="5"/>
+      <c r="EE5" s="5"/>
+      <c r="EF5" s="5"/>
+      <c r="EG5" s="5"/>
+      <c r="EH5" s="5"/>
+      <c r="EI5" s="5"/>
+      <c r="EJ5" s="5"/>
+      <c r="EK5" s="5"/>
+      <c r="EL5" s="5"/>
+      <c r="EM5" s="5"/>
+      <c r="EN5" s="5"/>
+      <c r="EO5" s="5"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>45966.799258182873</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="8" t="s">
         <v>43</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="5"/>
+      <c r="BG6" s="5"/>
+      <c r="BH6" s="5"/>
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="5"/>
+      <c r="BK6" s="5"/>
+      <c r="BL6" s="5"/>
+      <c r="BM6" s="5"/>
+      <c r="BN6" s="5"/>
+      <c r="BO6" s="5"/>
+      <c r="BP6" s="5"/>
+      <c r="BQ6" s="5"/>
+      <c r="BR6" s="5"/>
+      <c r="BS6" s="5"/>
+      <c r="BT6" s="5"/>
+      <c r="BU6" s="5"/>
+      <c r="BV6" s="5"/>
+      <c r="BW6" s="5"/>
+      <c r="BX6" s="5"/>
+      <c r="BY6" s="5"/>
+      <c r="BZ6" s="5"/>
+      <c r="CA6" s="5"/>
+      <c r="CB6" s="5"/>
+      <c r="CC6" s="5"/>
+      <c r="CD6" s="5"/>
+      <c r="CE6" s="5"/>
+      <c r="CF6" s="5"/>
+      <c r="CG6" s="5"/>
+      <c r="CH6" s="5"/>
+      <c r="CI6" s="5"/>
+      <c r="CJ6" s="5"/>
+      <c r="CK6" s="5"/>
+      <c r="CL6" s="5"/>
+      <c r="CM6" s="5"/>
+      <c r="CN6" s="5"/>
+      <c r="CO6" s="5"/>
+      <c r="CP6" s="5"/>
+      <c r="CQ6" s="5"/>
+      <c r="CR6" s="5"/>
+      <c r="CS6" s="5"/>
+      <c r="CT6" s="5"/>
+      <c r="CU6" s="5"/>
+      <c r="CV6" s="5"/>
+      <c r="CW6" s="5"/>
+      <c r="CX6" s="5"/>
+      <c r="CY6" s="5"/>
+      <c r="CZ6" s="5"/>
+      <c r="DA6" s="5"/>
+      <c r="DB6" s="5"/>
+      <c r="DC6" s="5"/>
+      <c r="DD6" s="5"/>
+      <c r="DE6" s="5"/>
+      <c r="DF6" s="5"/>
+      <c r="DG6" s="5"/>
+      <c r="DH6" s="5"/>
+      <c r="DI6" s="5"/>
+      <c r="DJ6" s="5"/>
+      <c r="DK6" s="5"/>
+      <c r="DL6" s="5"/>
+      <c r="DM6" s="5"/>
+      <c r="DN6" s="5"/>
+      <c r="DO6" s="5"/>
+      <c r="DP6" s="5"/>
+      <c r="DQ6" s="5"/>
+      <c r="DR6" s="5"/>
+      <c r="DS6" s="5"/>
+      <c r="DT6" s="5"/>
+      <c r="DU6" s="5"/>
+      <c r="DV6" s="5"/>
+      <c r="DW6" s="5"/>
+      <c r="DX6" s="5"/>
+      <c r="DY6" s="5"/>
+      <c r="DZ6" s="5"/>
+      <c r="EA6" s="5"/>
+      <c r="EB6" s="5"/>
+      <c r="EC6" s="5"/>
+      <c r="ED6" s="5"/>
+      <c r="EE6" s="5"/>
+      <c r="EF6" s="5"/>
+      <c r="EG6" s="5"/>
+      <c r="EH6" s="5"/>
+      <c r="EI6" s="5"/>
+      <c r="EJ6" s="5"/>
+      <c r="EK6" s="5"/>
+      <c r="EL6" s="5"/>
+      <c r="EM6" s="5"/>
+      <c r="EN6" s="5"/>
+      <c r="EO6" s="5"/>
+    </row>
+    <row r="7" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45967.413491377316</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7">
+        <v>8923</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="7"/>
+      <c r="BD7" s="7"/>
+      <c r="BE7" s="7"/>
+      <c r="BF7" s="7"/>
+      <c r="BG7" s="7"/>
+      <c r="BH7" s="7"/>
+      <c r="BI7" s="7"/>
+      <c r="BJ7" s="7"/>
+      <c r="BK7" s="7"/>
+      <c r="BL7" s="7"/>
+      <c r="BM7" s="7"/>
+      <c r="BN7" s="7"/>
+      <c r="BO7" s="7"/>
+      <c r="BP7" s="7"/>
+      <c r="BQ7" s="7"/>
+      <c r="BR7" s="7"/>
+      <c r="BS7" s="7"/>
+      <c r="BT7" s="7"/>
+      <c r="BU7" s="7"/>
+      <c r="BV7" s="7"/>
+      <c r="BW7" s="7"/>
+      <c r="BX7" s="7"/>
+      <c r="BY7" s="7"/>
+      <c r="BZ7" s="7"/>
+      <c r="CA7" s="7"/>
+      <c r="CB7" s="7"/>
+      <c r="CC7" s="7"/>
+      <c r="CD7" s="7"/>
+      <c r="CE7" s="7"/>
+      <c r="CF7" s="7"/>
+      <c r="CG7" s="7"/>
+      <c r="CH7" s="7"/>
+      <c r="CI7" s="7"/>
+      <c r="CJ7" s="7"/>
+      <c r="CK7" s="7"/>
+      <c r="CL7" s="7"/>
+      <c r="CM7" s="7"/>
+      <c r="CN7" s="7"/>
+      <c r="CO7" s="7"/>
+      <c r="CP7" s="7"/>
+      <c r="CQ7" s="7"/>
+      <c r="CR7" s="7"/>
+      <c r="CS7" s="7"/>
+      <c r="CT7" s="7"/>
+      <c r="CU7" s="7"/>
+      <c r="CV7" s="7"/>
+      <c r="CW7" s="7"/>
+      <c r="CX7" s="7"/>
+      <c r="CY7" s="7"/>
+      <c r="CZ7" s="7"/>
+      <c r="DA7" s="7"/>
+      <c r="DB7" s="7"/>
+      <c r="DC7" s="7"/>
+      <c r="DD7" s="7"/>
+      <c r="DE7" s="7"/>
+      <c r="DF7" s="7"/>
+      <c r="DG7" s="7"/>
+      <c r="DH7" s="7"/>
+      <c r="DI7" s="7"/>
+      <c r="DJ7" s="7"/>
+      <c r="DK7" s="7"/>
+      <c r="DL7" s="7"/>
+      <c r="DM7" s="7"/>
+      <c r="DN7" s="7"/>
+      <c r="DO7" s="7"/>
+      <c r="DP7" s="7"/>
+      <c r="DQ7" s="7"/>
+      <c r="DR7" s="7"/>
+      <c r="DS7" s="7"/>
+      <c r="DT7" s="7"/>
+      <c r="DU7" s="7"/>
+      <c r="DV7" s="7"/>
+      <c r="DW7" s="7"/>
+      <c r="DX7" s="7"/>
+      <c r="DY7" s="7"/>
+      <c r="DZ7" s="7"/>
+      <c r="EA7" s="7"/>
+      <c r="EB7" s="7"/>
+      <c r="EC7" s="7"/>
+      <c r="ED7" s="7"/>
+      <c r="EE7" s="7"/>
+      <c r="EF7" s="7"/>
+      <c r="EG7" s="7"/>
+      <c r="EH7" s="7"/>
+      <c r="EI7" s="7"/>
+      <c r="EJ7" s="7"/>
+      <c r="EK7" s="7"/>
+      <c r="EL7" s="7"/>
+      <c r="EM7" s="7"/>
+      <c r="EN7" s="7"/>
+      <c r="EO7" s="7"/>
+    </row>
+    <row r="8" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45967.515594699071</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="7"/>
+      <c r="BE8" s="7"/>
+      <c r="BF8" s="7"/>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="7"/>
+      <c r="BI8" s="7"/>
+      <c r="BJ8" s="7"/>
+      <c r="BK8" s="7"/>
+      <c r="BL8" s="7"/>
+      <c r="BM8" s="7"/>
+      <c r="BN8" s="7"/>
+      <c r="BO8" s="7"/>
+      <c r="BP8" s="7"/>
+      <c r="BQ8" s="7"/>
+      <c r="BR8" s="7"/>
+      <c r="BS8" s="7"/>
+      <c r="BT8" s="7"/>
+      <c r="BU8" s="7"/>
+      <c r="BV8" s="7"/>
+      <c r="BW8" s="7"/>
+      <c r="BX8" s="7"/>
+      <c r="BY8" s="7"/>
+      <c r="BZ8" s="7"/>
+      <c r="CA8" s="7"/>
+      <c r="CB8" s="7"/>
+      <c r="CC8" s="7"/>
+      <c r="CD8" s="7"/>
+      <c r="CE8" s="7"/>
+      <c r="CF8" s="7"/>
+      <c r="CG8" s="7"/>
+      <c r="CH8" s="7"/>
+      <c r="CI8" s="7"/>
+      <c r="CJ8" s="7"/>
+      <c r="CK8" s="7"/>
+      <c r="CL8" s="7"/>
+      <c r="CM8" s="7"/>
+      <c r="CN8" s="7"/>
+      <c r="CO8" s="7"/>
+      <c r="CP8" s="7"/>
+      <c r="CQ8" s="7"/>
+      <c r="CR8" s="7"/>
+      <c r="CS8" s="7"/>
+      <c r="CT8" s="7"/>
+      <c r="CU8" s="7"/>
+      <c r="CV8" s="7"/>
+      <c r="CW8" s="7"/>
+      <c r="CX8" s="7"/>
+      <c r="CY8" s="7"/>
+      <c r="CZ8" s="7"/>
+      <c r="DA8" s="7"/>
+      <c r="DB8" s="7"/>
+      <c r="DC8" s="7"/>
+      <c r="DD8" s="7"/>
+      <c r="DE8" s="7"/>
+      <c r="DF8" s="7"/>
+      <c r="DG8" s="7"/>
+      <c r="DH8" s="7"/>
+      <c r="DI8" s="7"/>
+      <c r="DJ8" s="7"/>
+      <c r="DK8" s="7"/>
+      <c r="DL8" s="7"/>
+      <c r="DM8" s="7"/>
+      <c r="DN8" s="7"/>
+      <c r="DO8" s="7"/>
+      <c r="DP8" s="7"/>
+      <c r="DQ8" s="7"/>
+      <c r="DR8" s="7"/>
+      <c r="DS8" s="7"/>
+      <c r="DT8" s="7"/>
+      <c r="DU8" s="7"/>
+      <c r="DV8" s="7"/>
+      <c r="DW8" s="7"/>
+      <c r="DX8" s="7"/>
+      <c r="DY8" s="7"/>
+      <c r="DZ8" s="7"/>
+      <c r="EA8" s="7"/>
+      <c r="EB8" s="7"/>
+      <c r="EC8" s="7"/>
+      <c r="ED8" s="7"/>
+      <c r="EE8" s="7"/>
+      <c r="EF8" s="7"/>
+      <c r="EG8" s="7"/>
+      <c r="EH8" s="7"/>
+      <c r="EI8" s="7"/>
+      <c r="EJ8" s="7"/>
+      <c r="EK8" s="7"/>
+      <c r="EL8" s="7"/>
+      <c r="EM8" s="7"/>
+      <c r="EN8" s="7"/>
+      <c r="EO8" s="7"/>
+    </row>
+    <row r="9" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45967.527190289351</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="7"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="7"/>
+      <c r="BO9" s="7"/>
+      <c r="BP9" s="7"/>
+      <c r="BQ9" s="7"/>
+      <c r="BR9" s="7"/>
+      <c r="BS9" s="7"/>
+      <c r="BT9" s="7"/>
+      <c r="BU9" s="7"/>
+      <c r="BV9" s="7"/>
+      <c r="BW9" s="7"/>
+      <c r="BX9" s="7"/>
+      <c r="BY9" s="7"/>
+      <c r="BZ9" s="7"/>
+      <c r="CA9" s="7"/>
+      <c r="CB9" s="7"/>
+      <c r="CC9" s="7"/>
+      <c r="CD9" s="7"/>
+      <c r="CE9" s="7"/>
+      <c r="CF9" s="7"/>
+      <c r="CG9" s="7"/>
+      <c r="CH9" s="7"/>
+      <c r="CI9" s="7"/>
+      <c r="CJ9" s="7"/>
+      <c r="CK9" s="7"/>
+      <c r="CL9" s="7"/>
+      <c r="CM9" s="7"/>
+      <c r="CN9" s="7"/>
+      <c r="CO9" s="7"/>
+      <c r="CP9" s="7"/>
+      <c r="CQ9" s="7"/>
+      <c r="CR9" s="7"/>
+      <c r="CS9" s="7"/>
+      <c r="CT9" s="7"/>
+      <c r="CU9" s="7"/>
+      <c r="CV9" s="7"/>
+      <c r="CW9" s="7"/>
+      <c r="CX9" s="7"/>
+      <c r="CY9" s="7"/>
+      <c r="CZ9" s="7"/>
+      <c r="DA9" s="7"/>
+      <c r="DB9" s="7"/>
+      <c r="DC9" s="7"/>
+      <c r="DD9" s="7"/>
+      <c r="DE9" s="7"/>
+      <c r="DF9" s="7"/>
+      <c r="DG9" s="7"/>
+      <c r="DH9" s="7"/>
+      <c r="DI9" s="7"/>
+      <c r="DJ9" s="7"/>
+      <c r="DK9" s="7"/>
+      <c r="DL9" s="7"/>
+      <c r="DM9" s="7"/>
+      <c r="DN9" s="7"/>
+      <c r="DO9" s="7"/>
+      <c r="DP9" s="7"/>
+      <c r="DQ9" s="7"/>
+      <c r="DR9" s="7"/>
+      <c r="DS9" s="7"/>
+      <c r="DT9" s="7"/>
+      <c r="DU9" s="7"/>
+      <c r="DV9" s="7"/>
+      <c r="DW9" s="7"/>
+      <c r="DX9" s="7"/>
+      <c r="DY9" s="7"/>
+      <c r="DZ9" s="7"/>
+      <c r="EA9" s="7"/>
+      <c r="EB9" s="7"/>
+      <c r="EC9" s="7"/>
+      <c r="ED9" s="7"/>
+      <c r="EE9" s="7"/>
+      <c r="EF9" s="7"/>
+      <c r="EG9" s="7"/>
+      <c r="EH9" s="7"/>
+      <c r="EI9" s="7"/>
+      <c r="EJ9" s="7"/>
+      <c r="EK9" s="7"/>
+      <c r="EL9" s="7"/>
+      <c r="EM9" s="7"/>
+      <c r="EN9" s="7"/>
+      <c r="EO9" s="7"/>
+    </row>
+    <row r="10" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45967.530689224535</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="7"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="7"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="7"/>
+      <c r="BJ10" s="7"/>
+      <c r="BK10" s="7"/>
+      <c r="BL10" s="7"/>
+      <c r="BM10" s="7"/>
+      <c r="BN10" s="7"/>
+      <c r="BO10" s="7"/>
+      <c r="BP10" s="7"/>
+      <c r="BQ10" s="7"/>
+      <c r="BR10" s="7"/>
+      <c r="BS10" s="7"/>
+      <c r="BT10" s="7"/>
+      <c r="BU10" s="7"/>
+      <c r="BV10" s="7"/>
+      <c r="BW10" s="7"/>
+      <c r="BX10" s="7"/>
+      <c r="BY10" s="7"/>
+      <c r="BZ10" s="7"/>
+      <c r="CA10" s="7"/>
+      <c r="CB10" s="7"/>
+      <c r="CC10" s="7"/>
+      <c r="CD10" s="7"/>
+      <c r="CE10" s="7"/>
+      <c r="CF10" s="7"/>
+      <c r="CG10" s="7"/>
+      <c r="CH10" s="7"/>
+      <c r="CI10" s="7"/>
+      <c r="CJ10" s="7"/>
+      <c r="CK10" s="7"/>
+      <c r="CL10" s="7"/>
+      <c r="CM10" s="7"/>
+      <c r="CN10" s="7"/>
+      <c r="CO10" s="7"/>
+      <c r="CP10" s="7"/>
+      <c r="CQ10" s="7"/>
+      <c r="CR10" s="7"/>
+      <c r="CS10" s="7"/>
+      <c r="CT10" s="7"/>
+      <c r="CU10" s="7"/>
+      <c r="CV10" s="7"/>
+      <c r="CW10" s="7"/>
+      <c r="CX10" s="7"/>
+      <c r="CY10" s="7"/>
+      <c r="CZ10" s="7"/>
+      <c r="DA10" s="7"/>
+      <c r="DB10" s="7"/>
+      <c r="DC10" s="7"/>
+      <c r="DD10" s="7"/>
+      <c r="DE10" s="7"/>
+      <c r="DF10" s="7"/>
+      <c r="DG10" s="7"/>
+      <c r="DH10" s="7"/>
+      <c r="DI10" s="7"/>
+      <c r="DJ10" s="7"/>
+      <c r="DK10" s="7"/>
+      <c r="DL10" s="7"/>
+      <c r="DM10" s="7"/>
+      <c r="DN10" s="7"/>
+      <c r="DO10" s="7"/>
+      <c r="DP10" s="7"/>
+      <c r="DQ10" s="7"/>
+      <c r="DR10" s="7"/>
+      <c r="DS10" s="7"/>
+      <c r="DT10" s="7"/>
+      <c r="DU10" s="7"/>
+      <c r="DV10" s="7"/>
+      <c r="DW10" s="7"/>
+      <c r="DX10" s="7"/>
+      <c r="DY10" s="7"/>
+      <c r="DZ10" s="7"/>
+      <c r="EA10" s="7"/>
+      <c r="EB10" s="7"/>
+      <c r="EC10" s="7"/>
+      <c r="ED10" s="7"/>
+      <c r="EE10" s="7"/>
+      <c r="EF10" s="7"/>
+      <c r="EG10" s="7"/>
+      <c r="EH10" s="7"/>
+      <c r="EI10" s="7"/>
+      <c r="EJ10" s="7"/>
+      <c r="EK10" s="7"/>
+      <c r="EL10" s="7"/>
+      <c r="EM10" s="7"/>
+      <c r="EN10" s="7"/>
+      <c r="EO10" s="7"/>
+    </row>
+    <row r="11" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45967.536212326391</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="7"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="7"/>
+      <c r="BO11" s="7"/>
+      <c r="BP11" s="7"/>
+      <c r="BQ11" s="7"/>
+      <c r="BR11" s="7"/>
+      <c r="BS11" s="7"/>
+      <c r="BT11" s="7"/>
+      <c r="BU11" s="7"/>
+      <c r="BV11" s="7"/>
+      <c r="BW11" s="7"/>
+      <c r="BX11" s="7"/>
+      <c r="BY11" s="7"/>
+      <c r="BZ11" s="7"/>
+      <c r="CA11" s="7"/>
+      <c r="CB11" s="7"/>
+      <c r="CC11" s="7"/>
+      <c r="CD11" s="7"/>
+      <c r="CE11" s="7"/>
+      <c r="CF11" s="7"/>
+      <c r="CG11" s="7"/>
+      <c r="CH11" s="7"/>
+      <c r="CI11" s="7"/>
+      <c r="CJ11" s="7"/>
+      <c r="CK11" s="7"/>
+      <c r="CL11" s="7"/>
+      <c r="CM11" s="7"/>
+      <c r="CN11" s="7"/>
+      <c r="CO11" s="7"/>
+      <c r="CP11" s="7"/>
+      <c r="CQ11" s="7"/>
+      <c r="CR11" s="7"/>
+      <c r="CS11" s="7"/>
+      <c r="CT11" s="7"/>
+      <c r="CU11" s="7"/>
+      <c r="CV11" s="7"/>
+      <c r="CW11" s="7"/>
+      <c r="CX11" s="7"/>
+      <c r="CY11" s="7"/>
+      <c r="CZ11" s="7"/>
+      <c r="DA11" s="7"/>
+      <c r="DB11" s="7"/>
+      <c r="DC11" s="7"/>
+      <c r="DD11" s="7"/>
+      <c r="DE11" s="7"/>
+      <c r="DF11" s="7"/>
+      <c r="DG11" s="7"/>
+      <c r="DH11" s="7"/>
+      <c r="DI11" s="7"/>
+      <c r="DJ11" s="7"/>
+      <c r="DK11" s="7"/>
+      <c r="DL11" s="7"/>
+      <c r="DM11" s="7"/>
+      <c r="DN11" s="7"/>
+      <c r="DO11" s="7"/>
+      <c r="DP11" s="7"/>
+      <c r="DQ11" s="7"/>
+      <c r="DR11" s="7"/>
+      <c r="DS11" s="7"/>
+      <c r="DT11" s="7"/>
+      <c r="DU11" s="7"/>
+      <c r="DV11" s="7"/>
+      <c r="DW11" s="7"/>
+      <c r="DX11" s="7"/>
+      <c r="DY11" s="7"/>
+      <c r="DZ11" s="7"/>
+      <c r="EA11" s="7"/>
+      <c r="EB11" s="7"/>
+      <c r="EC11" s="7"/>
+      <c r="ED11" s="7"/>
+      <c r="EE11" s="7"/>
+      <c r="EF11" s="7"/>
+      <c r="EG11" s="7"/>
+      <c r="EH11" s="7"/>
+      <c r="EI11" s="7"/>
+      <c r="EJ11" s="7"/>
+      <c r="EK11" s="7"/>
+      <c r="EL11" s="7"/>
+      <c r="EM11" s="7"/>
+      <c r="EN11" s="7"/>
+      <c r="EO11" s="7"/>
+    </row>
+    <row r="12" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45967.557434918985</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="7"/>
+      <c r="BO12" s="7"/>
+      <c r="BP12" s="7"/>
+      <c r="BQ12" s="7"/>
+      <c r="BR12" s="7"/>
+      <c r="BS12" s="7"/>
+      <c r="BT12" s="7"/>
+      <c r="BU12" s="7"/>
+      <c r="BV12" s="7"/>
+      <c r="BW12" s="7"/>
+      <c r="BX12" s="7"/>
+      <c r="BY12" s="7"/>
+      <c r="BZ12" s="7"/>
+      <c r="CA12" s="7"/>
+      <c r="CB12" s="7"/>
+      <c r="CC12" s="7"/>
+      <c r="CD12" s="7"/>
+      <c r="CE12" s="7"/>
+      <c r="CF12" s="7"/>
+      <c r="CG12" s="7"/>
+      <c r="CH12" s="7"/>
+      <c r="CI12" s="7"/>
+      <c r="CJ12" s="7"/>
+      <c r="CK12" s="7"/>
+      <c r="CL12" s="7"/>
+      <c r="CM12" s="7"/>
+      <c r="CN12" s="7"/>
+      <c r="CO12" s="7"/>
+      <c r="CP12" s="7"/>
+      <c r="CQ12" s="7"/>
+      <c r="CR12" s="7"/>
+      <c r="CS12" s="7"/>
+      <c r="CT12" s="7"/>
+      <c r="CU12" s="7"/>
+      <c r="CV12" s="7"/>
+      <c r="CW12" s="7"/>
+      <c r="CX12" s="7"/>
+      <c r="CY12" s="7"/>
+      <c r="CZ12" s="7"/>
+      <c r="DA12" s="7"/>
+      <c r="DB12" s="7"/>
+      <c r="DC12" s="7"/>
+      <c r="DD12" s="7"/>
+      <c r="DE12" s="7"/>
+      <c r="DF12" s="7"/>
+      <c r="DG12" s="7"/>
+      <c r="DH12" s="7"/>
+      <c r="DI12" s="7"/>
+      <c r="DJ12" s="7"/>
+      <c r="DK12" s="7"/>
+      <c r="DL12" s="7"/>
+      <c r="DM12" s="7"/>
+      <c r="DN12" s="7"/>
+      <c r="DO12" s="7"/>
+      <c r="DP12" s="7"/>
+      <c r="DQ12" s="7"/>
+      <c r="DR12" s="7"/>
+      <c r="DS12" s="7"/>
+      <c r="DT12" s="7"/>
+      <c r="DU12" s="7"/>
+      <c r="DV12" s="7"/>
+      <c r="DW12" s="7"/>
+      <c r="DX12" s="7"/>
+      <c r="DY12" s="7"/>
+      <c r="DZ12" s="7"/>
+      <c r="EA12" s="7"/>
+      <c r="EB12" s="7"/>
+      <c r="EC12" s="7"/>
+      <c r="ED12" s="7"/>
+      <c r="EE12" s="7"/>
+      <c r="EF12" s="7"/>
+      <c r="EG12" s="7"/>
+      <c r="EH12" s="7"/>
+      <c r="EI12" s="7"/>
+      <c r="EJ12" s="7"/>
+      <c r="EK12" s="7"/>
+      <c r="EL12" s="7"/>
+      <c r="EM12" s="7"/>
+      <c r="EN12" s="7"/>
+      <c r="EO12" s="7"/>
+    </row>
+    <row r="13" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45967.578452349539</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+      <c r="BK13" s="7"/>
+      <c r="BL13" s="7"/>
+      <c r="BM13" s="7"/>
+      <c r="BN13" s="7"/>
+      <c r="BO13" s="7"/>
+      <c r="BP13" s="7"/>
+      <c r="BQ13" s="7"/>
+      <c r="BR13" s="7"/>
+      <c r="BS13" s="7"/>
+      <c r="BT13" s="7"/>
+      <c r="BU13" s="7"/>
+      <c r="BV13" s="7"/>
+      <c r="BW13" s="7"/>
+      <c r="BX13" s="7"/>
+      <c r="BY13" s="7"/>
+      <c r="BZ13" s="7"/>
+      <c r="CA13" s="7"/>
+      <c r="CB13" s="7"/>
+      <c r="CC13" s="7"/>
+      <c r="CD13" s="7"/>
+      <c r="CE13" s="7"/>
+      <c r="CF13" s="7"/>
+      <c r="CG13" s="7"/>
+      <c r="CH13" s="7"/>
+      <c r="CI13" s="7"/>
+      <c r="CJ13" s="7"/>
+      <c r="CK13" s="7"/>
+      <c r="CL13" s="7"/>
+      <c r="CM13" s="7"/>
+      <c r="CN13" s="7"/>
+      <c r="CO13" s="7"/>
+      <c r="CP13" s="7"/>
+      <c r="CQ13" s="7"/>
+      <c r="CR13" s="7"/>
+      <c r="CS13" s="7"/>
+      <c r="CT13" s="7"/>
+      <c r="CU13" s="7"/>
+      <c r="CV13" s="7"/>
+      <c r="CW13" s="7"/>
+      <c r="CX13" s="7"/>
+      <c r="CY13" s="7"/>
+      <c r="CZ13" s="7"/>
+      <c r="DA13" s="7"/>
+      <c r="DB13" s="7"/>
+      <c r="DC13" s="7"/>
+      <c r="DD13" s="7"/>
+      <c r="DE13" s="7"/>
+      <c r="DF13" s="7"/>
+      <c r="DG13" s="7"/>
+      <c r="DH13" s="7"/>
+      <c r="DI13" s="7"/>
+      <c r="DJ13" s="7"/>
+      <c r="DK13" s="7"/>
+      <c r="DL13" s="7"/>
+      <c r="DM13" s="7"/>
+      <c r="DN13" s="7"/>
+      <c r="DO13" s="7"/>
+      <c r="DP13" s="7"/>
+      <c r="DQ13" s="7"/>
+      <c r="DR13" s="7"/>
+      <c r="DS13" s="7"/>
+      <c r="DT13" s="7"/>
+      <c r="DU13" s="7"/>
+      <c r="DV13" s="7"/>
+      <c r="DW13" s="7"/>
+      <c r="DX13" s="7"/>
+      <c r="DY13" s="7"/>
+      <c r="DZ13" s="7"/>
+      <c r="EA13" s="7"/>
+      <c r="EB13" s="7"/>
+      <c r="EC13" s="7"/>
+      <c r="ED13" s="7"/>
+      <c r="EE13" s="7"/>
+      <c r="EF13" s="7"/>
+      <c r="EG13" s="7"/>
+      <c r="EH13" s="7"/>
+      <c r="EI13" s="7"/>
+      <c r="EJ13" s="7"/>
+      <c r="EK13" s="7"/>
+      <c r="EL13" s="7"/>
+      <c r="EM13" s="7"/>
+      <c r="EN13" s="7"/>
+      <c r="EO13" s="7"/>
+    </row>
+    <row r="14" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45967.58898591435</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="7"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="7"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="7"/>
+      <c r="BK14" s="7"/>
+      <c r="BL14" s="7"/>
+      <c r="BM14" s="7"/>
+      <c r="BN14" s="7"/>
+      <c r="BO14" s="7"/>
+      <c r="BP14" s="7"/>
+      <c r="BQ14" s="7"/>
+      <c r="BR14" s="7"/>
+      <c r="BS14" s="7"/>
+      <c r="BT14" s="7"/>
+      <c r="BU14" s="7"/>
+      <c r="BV14" s="7"/>
+      <c r="BW14" s="7"/>
+      <c r="BX14" s="7"/>
+      <c r="BY14" s="7"/>
+      <c r="BZ14" s="7"/>
+      <c r="CA14" s="7"/>
+      <c r="CB14" s="7"/>
+      <c r="CC14" s="7"/>
+      <c r="CD14" s="7"/>
+      <c r="CE14" s="7"/>
+      <c r="CF14" s="7"/>
+      <c r="CG14" s="7"/>
+      <c r="CH14" s="7"/>
+      <c r="CI14" s="7"/>
+      <c r="CJ14" s="7"/>
+      <c r="CK14" s="7"/>
+      <c r="CL14" s="7"/>
+      <c r="CM14" s="7"/>
+      <c r="CN14" s="7"/>
+      <c r="CO14" s="7"/>
+      <c r="CP14" s="7"/>
+      <c r="CQ14" s="7"/>
+      <c r="CR14" s="7"/>
+      <c r="CS14" s="7"/>
+      <c r="CT14" s="7"/>
+      <c r="CU14" s="7"/>
+      <c r="CV14" s="7"/>
+      <c r="CW14" s="7"/>
+      <c r="CX14" s="7"/>
+      <c r="CY14" s="7"/>
+      <c r="CZ14" s="7"/>
+      <c r="DA14" s="7"/>
+      <c r="DB14" s="7"/>
+      <c r="DC14" s="7"/>
+      <c r="DD14" s="7"/>
+      <c r="DE14" s="7"/>
+      <c r="DF14" s="7"/>
+      <c r="DG14" s="7"/>
+      <c r="DH14" s="7"/>
+      <c r="DI14" s="7"/>
+      <c r="DJ14" s="7"/>
+      <c r="DK14" s="7"/>
+      <c r="DL14" s="7"/>
+      <c r="DM14" s="7"/>
+      <c r="DN14" s="7"/>
+      <c r="DO14" s="7"/>
+      <c r="DP14" s="7"/>
+      <c r="DQ14" s="7"/>
+      <c r="DR14" s="7"/>
+      <c r="DS14" s="7"/>
+      <c r="DT14" s="7"/>
+      <c r="DU14" s="7"/>
+      <c r="DV14" s="7"/>
+      <c r="DW14" s="7"/>
+      <c r="DX14" s="7"/>
+      <c r="DY14" s="7"/>
+      <c r="DZ14" s="7"/>
+      <c r="EA14" s="7"/>
+      <c r="EB14" s="7"/>
+      <c r="EC14" s="7"/>
+      <c r="ED14" s="7"/>
+      <c r="EE14" s="7"/>
+      <c r="EF14" s="7"/>
+      <c r="EG14" s="7"/>
+      <c r="EH14" s="7"/>
+      <c r="EI14" s="7"/>
+      <c r="EJ14" s="7"/>
+      <c r="EK14" s="7"/>
+      <c r="EL14" s="7"/>
+      <c r="EM14" s="7"/>
+      <c r="EN14" s="7"/>
+      <c r="EO14" s="7"/>
+    </row>
+    <row r="15" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45967.592089421298</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="7"/>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="7"/>
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="7"/>
+      <c r="BC15" s="7"/>
+      <c r="BD15" s="7"/>
+      <c r="BE15" s="7"/>
+      <c r="BF15" s="7"/>
+      <c r="BG15" s="7"/>
+      <c r="BH15" s="7"/>
+      <c r="BI15" s="7"/>
+      <c r="BJ15" s="7"/>
+      <c r="BK15" s="7"/>
+      <c r="BL15" s="7"/>
+      <c r="BM15" s="7"/>
+      <c r="BN15" s="7"/>
+      <c r="BO15" s="7"/>
+      <c r="BP15" s="7"/>
+      <c r="BQ15" s="7"/>
+      <c r="BR15" s="7"/>
+      <c r="BS15" s="7"/>
+      <c r="BT15" s="7"/>
+      <c r="BU15" s="7"/>
+      <c r="BV15" s="7"/>
+      <c r="BW15" s="7"/>
+      <c r="BX15" s="7"/>
+      <c r="BY15" s="7"/>
+      <c r="BZ15" s="7"/>
+      <c r="CA15" s="7"/>
+      <c r="CB15" s="7"/>
+      <c r="CC15" s="7"/>
+      <c r="CD15" s="7"/>
+      <c r="CE15" s="7"/>
+      <c r="CF15" s="7"/>
+      <c r="CG15" s="7"/>
+      <c r="CH15" s="7"/>
+      <c r="CI15" s="7"/>
+      <c r="CJ15" s="7"/>
+      <c r="CK15" s="7"/>
+      <c r="CL15" s="7"/>
+      <c r="CM15" s="7"/>
+      <c r="CN15" s="7"/>
+      <c r="CO15" s="7"/>
+      <c r="CP15" s="7"/>
+      <c r="CQ15" s="7"/>
+      <c r="CR15" s="7"/>
+      <c r="CS15" s="7"/>
+      <c r="CT15" s="7"/>
+      <c r="CU15" s="7"/>
+      <c r="CV15" s="7"/>
+      <c r="CW15" s="7"/>
+      <c r="CX15" s="7"/>
+      <c r="CY15" s="7"/>
+      <c r="CZ15" s="7"/>
+      <c r="DA15" s="7"/>
+      <c r="DB15" s="7"/>
+      <c r="DC15" s="7"/>
+      <c r="DD15" s="7"/>
+      <c r="DE15" s="7"/>
+      <c r="DF15" s="7"/>
+      <c r="DG15" s="7"/>
+      <c r="DH15" s="7"/>
+      <c r="DI15" s="7"/>
+      <c r="DJ15" s="7"/>
+      <c r="DK15" s="7"/>
+      <c r="DL15" s="7"/>
+      <c r="DM15" s="7"/>
+      <c r="DN15" s="7"/>
+      <c r="DO15" s="7"/>
+      <c r="DP15" s="7"/>
+      <c r="DQ15" s="7"/>
+      <c r="DR15" s="7"/>
+      <c r="DS15" s="7"/>
+      <c r="DT15" s="7"/>
+      <c r="DU15" s="7"/>
+      <c r="DV15" s="7"/>
+      <c r="DW15" s="7"/>
+      <c r="DX15" s="7"/>
+      <c r="DY15" s="7"/>
+      <c r="DZ15" s="7"/>
+      <c r="EA15" s="7"/>
+      <c r="EB15" s="7"/>
+      <c r="EC15" s="7"/>
+      <c r="ED15" s="7"/>
+      <c r="EE15" s="7"/>
+      <c r="EF15" s="7"/>
+      <c r="EG15" s="7"/>
+      <c r="EH15" s="7"/>
+      <c r="EI15" s="7"/>
+      <c r="EJ15" s="7"/>
+      <c r="EK15" s="7"/>
+      <c r="EL15" s="7"/>
+      <c r="EM15" s="7"/>
+      <c r="EN15" s="7"/>
+      <c r="EO15" s="7"/>
+    </row>
+    <row r="16" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45967.594324398146</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV16" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="7"/>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="7"/>
+      <c r="BC16" s="7"/>
+      <c r="BD16" s="7"/>
+      <c r="BE16" s="7"/>
+      <c r="BF16" s="7"/>
+      <c r="BG16" s="7"/>
+      <c r="BH16" s="7"/>
+      <c r="BI16" s="7"/>
+      <c r="BJ16" s="7"/>
+      <c r="BK16" s="7"/>
+      <c r="BL16" s="7"/>
+      <c r="BM16" s="7"/>
+      <c r="BN16" s="7"/>
+      <c r="BO16" s="7"/>
+      <c r="BP16" s="7"/>
+      <c r="BQ16" s="7"/>
+      <c r="BR16" s="7"/>
+      <c r="BS16" s="7"/>
+      <c r="BT16" s="7"/>
+      <c r="BU16" s="7"/>
+      <c r="BV16" s="7"/>
+      <c r="BW16" s="7"/>
+      <c r="BX16" s="7"/>
+      <c r="BY16" s="7"/>
+      <c r="BZ16" s="7"/>
+      <c r="CA16" s="7"/>
+      <c r="CB16" s="7"/>
+      <c r="CC16" s="7"/>
+      <c r="CD16" s="7"/>
+      <c r="CE16" s="7"/>
+      <c r="CF16" s="7"/>
+      <c r="CG16" s="7"/>
+      <c r="CH16" s="7"/>
+      <c r="CI16" s="7"/>
+      <c r="CJ16" s="7"/>
+      <c r="CK16" s="7"/>
+      <c r="CL16" s="7"/>
+      <c r="CM16" s="7"/>
+      <c r="CN16" s="7"/>
+      <c r="CO16" s="7"/>
+      <c r="CP16" s="7"/>
+      <c r="CQ16" s="7"/>
+      <c r="CR16" s="7"/>
+      <c r="CS16" s="7"/>
+      <c r="CT16" s="7"/>
+      <c r="CU16" s="7"/>
+      <c r="CV16" s="7"/>
+      <c r="CW16" s="7"/>
+      <c r="CX16" s="7"/>
+      <c r="CY16" s="7"/>
+      <c r="CZ16" s="7"/>
+      <c r="DA16" s="7"/>
+      <c r="DB16" s="7"/>
+      <c r="DC16" s="7"/>
+      <c r="DD16" s="7"/>
+      <c r="DE16" s="7"/>
+      <c r="DF16" s="7"/>
+      <c r="DG16" s="7"/>
+      <c r="DH16" s="7"/>
+      <c r="DI16" s="7"/>
+      <c r="DJ16" s="7"/>
+      <c r="DK16" s="7"/>
+      <c r="DL16" s="7"/>
+      <c r="DM16" s="7"/>
+      <c r="DN16" s="7"/>
+      <c r="DO16" s="7"/>
+      <c r="DP16" s="7"/>
+      <c r="DQ16" s="7"/>
+      <c r="DR16" s="7"/>
+      <c r="DS16" s="7"/>
+      <c r="DT16" s="7"/>
+      <c r="DU16" s="7"/>
+      <c r="DV16" s="7"/>
+      <c r="DW16" s="7"/>
+      <c r="DX16" s="7"/>
+      <c r="DY16" s="7"/>
+      <c r="DZ16" s="7"/>
+      <c r="EA16" s="7"/>
+      <c r="EB16" s="7"/>
+      <c r="EC16" s="7"/>
+      <c r="ED16" s="7"/>
+      <c r="EE16" s="7"/>
+      <c r="EF16" s="7"/>
+      <c r="EG16" s="7"/>
+      <c r="EH16" s="7"/>
+      <c r="EI16" s="7"/>
+      <c r="EJ16" s="7"/>
+      <c r="EK16" s="7"/>
+      <c r="EL16" s="7"/>
+      <c r="EM16" s="7"/>
+      <c r="EN16" s="7"/>
+      <c r="EO16" s="7"/>
+    </row>
+    <row r="17" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45967.601539421295</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="7">
+        <v>8717</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY17" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="7"/>
+      <c r="BC17" s="7"/>
+      <c r="BD17" s="7"/>
+      <c r="BE17" s="7"/>
+      <c r="BF17" s="7"/>
+      <c r="BG17" s="7"/>
+      <c r="BH17" s="7"/>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="7"/>
+      <c r="BK17" s="7"/>
+      <c r="BL17" s="7"/>
+      <c r="BM17" s="7"/>
+      <c r="BN17" s="7"/>
+      <c r="BO17" s="7"/>
+      <c r="BP17" s="7"/>
+      <c r="BQ17" s="7"/>
+      <c r="BR17" s="7"/>
+      <c r="BS17" s="7"/>
+      <c r="BT17" s="7"/>
+      <c r="BU17" s="7"/>
+      <c r="BV17" s="7"/>
+      <c r="BW17" s="7"/>
+      <c r="BX17" s="7"/>
+      <c r="BY17" s="7"/>
+      <c r="BZ17" s="7"/>
+      <c r="CA17" s="7"/>
+      <c r="CB17" s="7"/>
+      <c r="CC17" s="7"/>
+      <c r="CD17" s="7"/>
+      <c r="CE17" s="7"/>
+      <c r="CF17" s="7"/>
+      <c r="CG17" s="7"/>
+      <c r="CH17" s="7"/>
+      <c r="CI17" s="7"/>
+      <c r="CJ17" s="7"/>
+      <c r="CK17" s="7"/>
+      <c r="CL17" s="7"/>
+      <c r="CM17" s="7"/>
+      <c r="CN17" s="7"/>
+      <c r="CO17" s="7"/>
+      <c r="CP17" s="7"/>
+      <c r="CQ17" s="7"/>
+      <c r="CR17" s="7"/>
+      <c r="CS17" s="7"/>
+      <c r="CT17" s="7"/>
+      <c r="CU17" s="7"/>
+      <c r="CV17" s="7"/>
+      <c r="CW17" s="7"/>
+      <c r="CX17" s="7"/>
+      <c r="CY17" s="7"/>
+      <c r="CZ17" s="7"/>
+      <c r="DA17" s="7"/>
+      <c r="DB17" s="7"/>
+      <c r="DC17" s="7"/>
+      <c r="DD17" s="7"/>
+      <c r="DE17" s="7"/>
+      <c r="DF17" s="7"/>
+      <c r="DG17" s="7"/>
+      <c r="DH17" s="7"/>
+      <c r="DI17" s="7"/>
+      <c r="DJ17" s="7"/>
+      <c r="DK17" s="7"/>
+      <c r="DL17" s="7"/>
+      <c r="DM17" s="7"/>
+      <c r="DN17" s="7"/>
+      <c r="DO17" s="7"/>
+      <c r="DP17" s="7"/>
+      <c r="DQ17" s="7"/>
+      <c r="DR17" s="7"/>
+      <c r="DS17" s="7"/>
+      <c r="DT17" s="7"/>
+      <c r="DU17" s="7"/>
+      <c r="DV17" s="7"/>
+      <c r="DW17" s="7"/>
+      <c r="DX17" s="7"/>
+      <c r="DY17" s="7"/>
+      <c r="DZ17" s="7"/>
+      <c r="EA17" s="7"/>
+      <c r="EB17" s="7"/>
+      <c r="EC17" s="7"/>
+      <c r="ED17" s="7"/>
+      <c r="EE17" s="7"/>
+      <c r="EF17" s="7"/>
+      <c r="EG17" s="7"/>
+      <c r="EH17" s="7"/>
+      <c r="EI17" s="7"/>
+      <c r="EJ17" s="7"/>
+      <c r="EK17" s="7"/>
+      <c r="EL17" s="7"/>
+      <c r="EM17" s="7"/>
+      <c r="EN17" s="7"/>
+      <c r="EO17" s="7"/>
+    </row>
+    <row r="18" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45967.606286238428</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="7">
+        <v>8924</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="BB18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC18" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="BD18" s="7"/>
+      <c r="BE18" s="7"/>
+      <c r="BF18" s="7"/>
+      <c r="BG18" s="7"/>
+      <c r="BH18" s="7"/>
+      <c r="BI18" s="7"/>
+      <c r="BJ18" s="7"/>
+      <c r="BK18" s="7"/>
+      <c r="BL18" s="7"/>
+      <c r="BM18" s="7"/>
+      <c r="BN18" s="7"/>
+      <c r="BO18" s="7"/>
+      <c r="BP18" s="7"/>
+      <c r="BQ18" s="7"/>
+      <c r="BR18" s="7"/>
+      <c r="BS18" s="7"/>
+      <c r="BT18" s="7"/>
+      <c r="BU18" s="7"/>
+      <c r="BV18" s="7"/>
+      <c r="BW18" s="7"/>
+      <c r="BX18" s="7"/>
+      <c r="BY18" s="7"/>
+      <c r="BZ18" s="7"/>
+      <c r="CA18" s="7"/>
+      <c r="CB18" s="7"/>
+      <c r="CC18" s="7"/>
+      <c r="CD18" s="7"/>
+      <c r="CE18" s="7"/>
+      <c r="CF18" s="7"/>
+      <c r="CG18" s="7"/>
+      <c r="CH18" s="7"/>
+      <c r="CI18" s="7"/>
+      <c r="CJ18" s="7"/>
+      <c r="CK18" s="7"/>
+      <c r="CL18" s="7"/>
+      <c r="CM18" s="7"/>
+      <c r="CN18" s="7"/>
+      <c r="CO18" s="7"/>
+      <c r="CP18" s="7"/>
+      <c r="CQ18" s="7"/>
+      <c r="CR18" s="7"/>
+      <c r="CS18" s="7"/>
+      <c r="CT18" s="7"/>
+      <c r="CU18" s="7"/>
+      <c r="CV18" s="7"/>
+      <c r="CW18" s="7"/>
+      <c r="CX18" s="7"/>
+      <c r="CY18" s="7"/>
+      <c r="CZ18" s="7"/>
+      <c r="DA18" s="7"/>
+      <c r="DB18" s="7"/>
+      <c r="DC18" s="7"/>
+      <c r="DD18" s="7"/>
+      <c r="DE18" s="7"/>
+      <c r="DF18" s="7"/>
+      <c r="DG18" s="7"/>
+      <c r="DH18" s="7"/>
+      <c r="DI18" s="7"/>
+      <c r="DJ18" s="7"/>
+      <c r="DK18" s="7"/>
+      <c r="DL18" s="7"/>
+      <c r="DM18" s="7"/>
+      <c r="DN18" s="7"/>
+      <c r="DO18" s="7"/>
+      <c r="DP18" s="7"/>
+      <c r="DQ18" s="7"/>
+      <c r="DR18" s="7"/>
+      <c r="DS18" s="7"/>
+      <c r="DT18" s="7"/>
+      <c r="DU18" s="7"/>
+      <c r="DV18" s="7"/>
+      <c r="DW18" s="7"/>
+      <c r="DX18" s="7"/>
+      <c r="DY18" s="7"/>
+      <c r="DZ18" s="7"/>
+      <c r="EA18" s="7"/>
+      <c r="EB18" s="7"/>
+      <c r="EC18" s="7"/>
+      <c r="ED18" s="7"/>
+      <c r="EE18" s="7"/>
+      <c r="EF18" s="7"/>
+      <c r="EG18" s="7"/>
+      <c r="EH18" s="7"/>
+      <c r="EI18" s="7"/>
+      <c r="EJ18" s="7"/>
+      <c r="EK18" s="7"/>
+      <c r="EL18" s="7"/>
+      <c r="EM18" s="7"/>
+      <c r="EN18" s="7"/>
+      <c r="EO18" s="7"/>
+    </row>
+    <row r="19" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45967.623761747687</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD19" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF19" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="7"/>
+      <c r="BI19" s="7"/>
+      <c r="BJ19" s="7"/>
+      <c r="BK19" s="7"/>
+      <c r="BL19" s="7"/>
+      <c r="BM19" s="7"/>
+      <c r="BN19" s="7"/>
+      <c r="BO19" s="7"/>
+      <c r="BP19" s="7"/>
+      <c r="BQ19" s="7"/>
+      <c r="BR19" s="7"/>
+      <c r="BS19" s="7"/>
+      <c r="BT19" s="7"/>
+      <c r="BU19" s="7"/>
+      <c r="BV19" s="7"/>
+      <c r="BW19" s="7"/>
+      <c r="BX19" s="7"/>
+      <c r="BY19" s="7"/>
+      <c r="BZ19" s="7"/>
+      <c r="CA19" s="7"/>
+      <c r="CB19" s="7"/>
+      <c r="CC19" s="7"/>
+      <c r="CD19" s="7"/>
+      <c r="CE19" s="7"/>
+      <c r="CF19" s="7"/>
+      <c r="CG19" s="7"/>
+      <c r="CH19" s="7"/>
+      <c r="CI19" s="7"/>
+      <c r="CJ19" s="7"/>
+      <c r="CK19" s="7"/>
+      <c r="CL19" s="7"/>
+      <c r="CM19" s="7"/>
+      <c r="CN19" s="7"/>
+      <c r="CO19" s="7"/>
+      <c r="CP19" s="7"/>
+      <c r="CQ19" s="7"/>
+      <c r="CR19" s="7"/>
+      <c r="CS19" s="7"/>
+      <c r="CT19" s="7"/>
+      <c r="CU19" s="7"/>
+      <c r="CV19" s="7"/>
+      <c r="CW19" s="7"/>
+      <c r="CX19" s="7"/>
+      <c r="CY19" s="7"/>
+      <c r="CZ19" s="7"/>
+      <c r="DA19" s="7"/>
+      <c r="DB19" s="7"/>
+      <c r="DC19" s="7"/>
+      <c r="DD19" s="7"/>
+      <c r="DE19" s="7"/>
+      <c r="DF19" s="7"/>
+      <c r="DG19" s="7"/>
+      <c r="DH19" s="7"/>
+      <c r="DI19" s="7"/>
+      <c r="DJ19" s="7"/>
+      <c r="DK19" s="7"/>
+      <c r="DL19" s="7"/>
+      <c r="DM19" s="7"/>
+      <c r="DN19" s="7"/>
+      <c r="DO19" s="7"/>
+      <c r="DP19" s="7"/>
+      <c r="DQ19" s="7"/>
+      <c r="DR19" s="7"/>
+      <c r="DS19" s="7"/>
+      <c r="DT19" s="7"/>
+      <c r="DU19" s="7"/>
+      <c r="DV19" s="7"/>
+      <c r="DW19" s="7"/>
+      <c r="DX19" s="7"/>
+      <c r="DY19" s="7"/>
+      <c r="DZ19" s="7"/>
+      <c r="EA19" s="7"/>
+      <c r="EB19" s="7"/>
+      <c r="EC19" s="7"/>
+      <c r="ED19" s="7"/>
+      <c r="EE19" s="7"/>
+      <c r="EF19" s="7"/>
+      <c r="EG19" s="7"/>
+      <c r="EH19" s="7"/>
+      <c r="EI19" s="7"/>
+      <c r="EJ19" s="7"/>
+      <c r="EK19" s="7"/>
+      <c r="EL19" s="7"/>
+      <c r="EM19" s="7"/>
+      <c r="EN19" s="7"/>
+      <c r="EO19" s="7"/>
+    </row>
+    <row r="20" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45967.633980729166</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BG20" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH20" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="BI20" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="BJ20" s="7"/>
+      <c r="BK20" s="7"/>
+      <c r="BL20" s="7"/>
+      <c r="BM20" s="7"/>
+      <c r="BN20" s="7"/>
+      <c r="BO20" s="7"/>
+      <c r="BP20" s="7"/>
+      <c r="BQ20" s="7"/>
+      <c r="BR20" s="7"/>
+      <c r="BS20" s="7"/>
+      <c r="BT20" s="7"/>
+      <c r="BU20" s="7"/>
+      <c r="BV20" s="7"/>
+      <c r="BW20" s="7"/>
+      <c r="BX20" s="7"/>
+      <c r="BY20" s="7"/>
+      <c r="BZ20" s="7"/>
+      <c r="CA20" s="7"/>
+      <c r="CB20" s="7"/>
+      <c r="CC20" s="7"/>
+      <c r="CD20" s="7"/>
+      <c r="CE20" s="7"/>
+      <c r="CF20" s="7"/>
+      <c r="CG20" s="7"/>
+      <c r="CH20" s="7"/>
+      <c r="CI20" s="7"/>
+      <c r="CJ20" s="7"/>
+      <c r="CK20" s="7"/>
+      <c r="CL20" s="7"/>
+      <c r="CM20" s="7"/>
+      <c r="CN20" s="7"/>
+      <c r="CO20" s="7"/>
+      <c r="CP20" s="7"/>
+      <c r="CQ20" s="7"/>
+      <c r="CR20" s="7"/>
+      <c r="CS20" s="7"/>
+      <c r="CT20" s="7"/>
+      <c r="CU20" s="7"/>
+      <c r="CV20" s="7"/>
+      <c r="CW20" s="7"/>
+      <c r="CX20" s="7"/>
+      <c r="CY20" s="7"/>
+      <c r="CZ20" s="7"/>
+      <c r="DA20" s="7"/>
+      <c r="DB20" s="7"/>
+      <c r="DC20" s="7"/>
+      <c r="DD20" s="7"/>
+      <c r="DE20" s="7"/>
+      <c r="DF20" s="7"/>
+      <c r="DG20" s="7"/>
+      <c r="DH20" s="7"/>
+      <c r="DI20" s="7"/>
+      <c r="DJ20" s="7"/>
+      <c r="DK20" s="7"/>
+      <c r="DL20" s="7"/>
+      <c r="DM20" s="7"/>
+      <c r="DN20" s="7"/>
+      <c r="DO20" s="7"/>
+      <c r="DP20" s="7"/>
+      <c r="DQ20" s="7"/>
+      <c r="DR20" s="7"/>
+      <c r="DS20" s="7"/>
+      <c r="DT20" s="7"/>
+      <c r="DU20" s="7"/>
+      <c r="DV20" s="7"/>
+      <c r="DW20" s="7"/>
+      <c r="DX20" s="7"/>
+      <c r="DY20" s="7"/>
+      <c r="DZ20" s="7"/>
+      <c r="EA20" s="7"/>
+      <c r="EB20" s="7"/>
+      <c r="EC20" s="7"/>
+      <c r="ED20" s="7"/>
+      <c r="EE20" s="7"/>
+      <c r="EF20" s="7"/>
+      <c r="EG20" s="7"/>
+      <c r="EH20" s="7"/>
+      <c r="EI20" s="7"/>
+      <c r="EJ20" s="7"/>
+      <c r="EK20" s="7"/>
+      <c r="EL20" s="7"/>
+      <c r="EM20" s="7"/>
+      <c r="EN20" s="7"/>
+      <c r="EO20" s="7"/>
+    </row>
+    <row r="21" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45967.641973402773</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="7">
+        <v>9131</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ21" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="BK21" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="BL21" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BM21" s="7"/>
+      <c r="BN21" s="7"/>
+      <c r="BO21" s="7"/>
+      <c r="BP21" s="7"/>
+      <c r="BQ21" s="7"/>
+      <c r="BR21" s="7"/>
+      <c r="BS21" s="7"/>
+      <c r="BT21" s="7"/>
+      <c r="BU21" s="7"/>
+      <c r="BV21" s="7"/>
+      <c r="BW21" s="7"/>
+      <c r="BX21" s="7"/>
+      <c r="BY21" s="7"/>
+      <c r="BZ21" s="7"/>
+      <c r="CA21" s="7"/>
+      <c r="CB21" s="7"/>
+      <c r="CC21" s="7"/>
+      <c r="CD21" s="7"/>
+      <c r="CE21" s="7"/>
+      <c r="CF21" s="7"/>
+      <c r="CG21" s="7"/>
+      <c r="CH21" s="7"/>
+      <c r="CI21" s="7"/>
+      <c r="CJ21" s="7"/>
+      <c r="CK21" s="7"/>
+      <c r="CL21" s="7"/>
+      <c r="CM21" s="7"/>
+      <c r="CN21" s="7"/>
+      <c r="CO21" s="7"/>
+      <c r="CP21" s="7"/>
+      <c r="CQ21" s="7"/>
+      <c r="CR21" s="7"/>
+      <c r="CS21" s="7"/>
+      <c r="CT21" s="7"/>
+      <c r="CU21" s="7"/>
+      <c r="CV21" s="7"/>
+      <c r="CW21" s="7"/>
+      <c r="CX21" s="7"/>
+      <c r="CY21" s="7"/>
+      <c r="CZ21" s="7"/>
+      <c r="DA21" s="7"/>
+      <c r="DB21" s="7"/>
+      <c r="DC21" s="7"/>
+      <c r="DD21" s="7"/>
+      <c r="DE21" s="7"/>
+      <c r="DF21" s="7"/>
+      <c r="DG21" s="7"/>
+      <c r="DH21" s="7"/>
+      <c r="DI21" s="7"/>
+      <c r="DJ21" s="7"/>
+      <c r="DK21" s="7"/>
+      <c r="DL21" s="7"/>
+      <c r="DM21" s="7"/>
+      <c r="DN21" s="7"/>
+      <c r="DO21" s="7"/>
+      <c r="DP21" s="7"/>
+      <c r="DQ21" s="7"/>
+      <c r="DR21" s="7"/>
+      <c r="DS21" s="7"/>
+      <c r="DT21" s="7"/>
+      <c r="DU21" s="7"/>
+      <c r="DV21" s="7"/>
+      <c r="DW21" s="7"/>
+      <c r="DX21" s="7"/>
+      <c r="DY21" s="7"/>
+      <c r="DZ21" s="7"/>
+      <c r="EA21" s="7"/>
+      <c r="EB21" s="7"/>
+      <c r="EC21" s="7"/>
+      <c r="ED21" s="7"/>
+      <c r="EE21" s="7"/>
+      <c r="EF21" s="7"/>
+      <c r="EG21" s="7"/>
+      <c r="EH21" s="7"/>
+      <c r="EI21" s="7"/>
+      <c r="EJ21" s="7"/>
+      <c r="EK21" s="7"/>
+      <c r="EL21" s="7"/>
+      <c r="EM21" s="7"/>
+      <c r="EN21" s="7"/>
+      <c r="EO21" s="7"/>
+    </row>
+    <row r="22" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45967.657594166667</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="7">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM22" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN22" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="BO22" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP22" s="7"/>
+      <c r="BQ22" s="7"/>
+      <c r="BR22" s="7"/>
+      <c r="BS22" s="7"/>
+      <c r="BT22" s="7"/>
+      <c r="BU22" s="7"/>
+      <c r="BV22" s="7"/>
+      <c r="BW22" s="7"/>
+      <c r="BX22" s="7"/>
+      <c r="BY22" s="7"/>
+      <c r="BZ22" s="7"/>
+      <c r="CA22" s="7"/>
+      <c r="CB22" s="7"/>
+      <c r="CC22" s="7"/>
+      <c r="CD22" s="7"/>
+      <c r="CE22" s="7"/>
+      <c r="CF22" s="7"/>
+      <c r="CG22" s="7"/>
+      <c r="CH22" s="7"/>
+      <c r="CI22" s="7"/>
+      <c r="CJ22" s="7"/>
+      <c r="CK22" s="7"/>
+      <c r="CL22" s="7"/>
+      <c r="CM22" s="7"/>
+      <c r="CN22" s="7"/>
+      <c r="CO22" s="7"/>
+      <c r="CP22" s="7"/>
+      <c r="CQ22" s="7"/>
+      <c r="CR22" s="7"/>
+      <c r="CS22" s="7"/>
+      <c r="CT22" s="7"/>
+      <c r="CU22" s="7"/>
+      <c r="CV22" s="7"/>
+      <c r="CW22" s="7"/>
+      <c r="CX22" s="7"/>
+      <c r="CY22" s="7"/>
+      <c r="CZ22" s="7"/>
+      <c r="DA22" s="7"/>
+      <c r="DB22" s="7"/>
+      <c r="DC22" s="7"/>
+      <c r="DD22" s="7"/>
+      <c r="DE22" s="7"/>
+      <c r="DF22" s="7"/>
+      <c r="DG22" s="7"/>
+      <c r="DH22" s="7"/>
+      <c r="DI22" s="7"/>
+      <c r="DJ22" s="7"/>
+      <c r="DK22" s="7"/>
+      <c r="DL22" s="7"/>
+      <c r="DM22" s="7"/>
+      <c r="DN22" s="7"/>
+      <c r="DO22" s="7"/>
+      <c r="DP22" s="7"/>
+      <c r="DQ22" s="7"/>
+      <c r="DR22" s="7"/>
+      <c r="DS22" s="7"/>
+      <c r="DT22" s="7"/>
+      <c r="DU22" s="7"/>
+      <c r="DV22" s="7"/>
+      <c r="DW22" s="7"/>
+      <c r="DX22" s="7"/>
+      <c r="DY22" s="7"/>
+      <c r="DZ22" s="7"/>
+      <c r="EA22" s="7"/>
+      <c r="EB22" s="7"/>
+      <c r="EC22" s="7"/>
+      <c r="ED22" s="7"/>
+      <c r="EE22" s="7"/>
+      <c r="EF22" s="7"/>
+      <c r="EG22" s="7"/>
+      <c r="EH22" s="7"/>
+      <c r="EI22" s="7"/>
+      <c r="EJ22" s="7"/>
+      <c r="EK22" s="7"/>
+      <c r="EL22" s="7"/>
+      <c r="EM22" s="7"/>
+      <c r="EN22" s="7"/>
+      <c r="EO22" s="7"/>
+    </row>
+    <row r="23" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45967.662698287037</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BP23" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ23" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR23" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BS23" s="7"/>
+      <c r="BT23" s="7"/>
+      <c r="BU23" s="7"/>
+      <c r="BV23" s="7"/>
+      <c r="BW23" s="7"/>
+      <c r="BX23" s="7"/>
+      <c r="BY23" s="7"/>
+      <c r="BZ23" s="7"/>
+      <c r="CA23" s="7"/>
+      <c r="CB23" s="7"/>
+      <c r="CC23" s="7"/>
+      <c r="CD23" s="7"/>
+      <c r="CE23" s="7"/>
+      <c r="CF23" s="7"/>
+      <c r="CG23" s="7"/>
+      <c r="CH23" s="7"/>
+      <c r="CI23" s="7"/>
+      <c r="CJ23" s="7"/>
+      <c r="CK23" s="7"/>
+      <c r="CL23" s="7"/>
+      <c r="CM23" s="7"/>
+      <c r="CN23" s="7"/>
+      <c r="CO23" s="7"/>
+      <c r="CP23" s="7"/>
+      <c r="CQ23" s="7"/>
+      <c r="CR23" s="7"/>
+      <c r="CS23" s="7"/>
+      <c r="CT23" s="7"/>
+      <c r="CU23" s="7"/>
+      <c r="CV23" s="7"/>
+      <c r="CW23" s="7"/>
+      <c r="CX23" s="7"/>
+      <c r="CY23" s="7"/>
+      <c r="CZ23" s="7"/>
+      <c r="DA23" s="7"/>
+      <c r="DB23" s="7"/>
+      <c r="DC23" s="7"/>
+      <c r="DD23" s="7"/>
+      <c r="DE23" s="7"/>
+      <c r="DF23" s="7"/>
+      <c r="DG23" s="7"/>
+      <c r="DH23" s="7"/>
+      <c r="DI23" s="7"/>
+      <c r="DJ23" s="7"/>
+      <c r="DK23" s="7"/>
+      <c r="DL23" s="7"/>
+      <c r="DM23" s="7"/>
+      <c r="DN23" s="7"/>
+      <c r="DO23" s="7"/>
+      <c r="DP23" s="7"/>
+      <c r="DQ23" s="7"/>
+      <c r="DR23" s="7"/>
+      <c r="DS23" s="7"/>
+      <c r="DT23" s="7"/>
+      <c r="DU23" s="7"/>
+      <c r="DV23" s="7"/>
+      <c r="DW23" s="7"/>
+      <c r="DX23" s="7"/>
+      <c r="DY23" s="7"/>
+      <c r="DZ23" s="7"/>
+      <c r="EA23" s="7"/>
+      <c r="EB23" s="7"/>
+      <c r="EC23" s="7"/>
+      <c r="ED23" s="7"/>
+      <c r="EE23" s="7"/>
+      <c r="EF23" s="7"/>
+      <c r="EG23" s="7"/>
+      <c r="EH23" s="7"/>
+      <c r="EI23" s="7"/>
+      <c r="EJ23" s="7"/>
+      <c r="EK23" s="7"/>
+      <c r="EL23" s="7"/>
+      <c r="EM23" s="7"/>
+      <c r="EN23" s="7"/>
+      <c r="EO23" s="7"/>
+    </row>
+    <row r="24" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="6">
+        <v>45967.667371296295</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="7">
+        <v>179</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS24" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT24" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU24" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV24" s="7"/>
+      <c r="BW24" s="7"/>
+      <c r="BX24" s="7"/>
+      <c r="BY24" s="7"/>
+      <c r="BZ24" s="7"/>
+      <c r="CA24" s="7"/>
+      <c r="CB24" s="7"/>
+      <c r="CC24" s="7"/>
+      <c r="CD24" s="7"/>
+      <c r="CE24" s="7"/>
+      <c r="CF24" s="7"/>
+      <c r="CG24" s="7"/>
+      <c r="CH24" s="7"/>
+      <c r="CI24" s="7"/>
+      <c r="CJ24" s="7"/>
+      <c r="CK24" s="7"/>
+      <c r="CL24" s="7"/>
+      <c r="CM24" s="7"/>
+      <c r="CN24" s="7"/>
+      <c r="CO24" s="7"/>
+      <c r="CP24" s="7"/>
+      <c r="CQ24" s="7"/>
+      <c r="CR24" s="7"/>
+      <c r="CS24" s="7"/>
+      <c r="CT24" s="7"/>
+      <c r="CU24" s="7"/>
+      <c r="CV24" s="7"/>
+      <c r="CW24" s="7"/>
+      <c r="CX24" s="7"/>
+      <c r="CY24" s="7"/>
+      <c r="CZ24" s="7"/>
+      <c r="DA24" s="7"/>
+      <c r="DB24" s="7"/>
+      <c r="DC24" s="7"/>
+      <c r="DD24" s="7"/>
+      <c r="DE24" s="7"/>
+      <c r="DF24" s="7"/>
+      <c r="DG24" s="7"/>
+      <c r="DH24" s="7"/>
+      <c r="DI24" s="7"/>
+      <c r="DJ24" s="7"/>
+      <c r="DK24" s="7"/>
+      <c r="DL24" s="7"/>
+      <c r="DM24" s="7"/>
+      <c r="DN24" s="7"/>
+      <c r="DO24" s="7"/>
+      <c r="DP24" s="7"/>
+      <c r="DQ24" s="7"/>
+      <c r="DR24" s="7"/>
+      <c r="DS24" s="7"/>
+      <c r="DT24" s="7"/>
+      <c r="DU24" s="7"/>
+      <c r="DV24" s="7"/>
+      <c r="DW24" s="7"/>
+      <c r="DX24" s="7"/>
+      <c r="DY24" s="7"/>
+      <c r="DZ24" s="7"/>
+      <c r="EA24" s="7"/>
+      <c r="EB24" s="7"/>
+      <c r="EC24" s="7"/>
+      <c r="ED24" s="7"/>
+      <c r="EE24" s="7"/>
+      <c r="EF24" s="7"/>
+      <c r="EG24" s="7"/>
+      <c r="EH24" s="7"/>
+      <c r="EI24" s="7"/>
+      <c r="EJ24" s="7"/>
+      <c r="EK24" s="7"/>
+      <c r="EL24" s="7"/>
+      <c r="EM24" s="7"/>
+      <c r="EN24" s="7"/>
+      <c r="EO24" s="7"/>
+    </row>
+    <row r="25" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="6">
+        <v>45967.667663171298</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1236</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BV25" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="BW25" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="BX25" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="BY25" s="7"/>
+      <c r="BZ25" s="7"/>
+      <c r="CA25" s="7"/>
+      <c r="CB25" s="7"/>
+      <c r="CC25" s="7"/>
+      <c r="CD25" s="7"/>
+      <c r="CE25" s="7"/>
+      <c r="CF25" s="7"/>
+      <c r="CG25" s="7"/>
+      <c r="CH25" s="7"/>
+      <c r="CI25" s="7"/>
+      <c r="CJ25" s="7"/>
+      <c r="CK25" s="7"/>
+      <c r="CL25" s="7"/>
+      <c r="CM25" s="7"/>
+      <c r="CN25" s="7"/>
+      <c r="CO25" s="7"/>
+      <c r="CP25" s="7"/>
+      <c r="CQ25" s="7"/>
+      <c r="CR25" s="7"/>
+      <c r="CS25" s="7"/>
+      <c r="CT25" s="7"/>
+      <c r="CU25" s="7"/>
+      <c r="CV25" s="7"/>
+      <c r="CW25" s="7"/>
+      <c r="CX25" s="7"/>
+      <c r="CY25" s="7"/>
+      <c r="CZ25" s="7"/>
+      <c r="DA25" s="7"/>
+      <c r="DB25" s="7"/>
+      <c r="DC25" s="7"/>
+      <c r="DD25" s="7"/>
+      <c r="DE25" s="7"/>
+      <c r="DF25" s="7"/>
+      <c r="DG25" s="7"/>
+      <c r="DH25" s="7"/>
+      <c r="DI25" s="7"/>
+      <c r="DJ25" s="7"/>
+      <c r="DK25" s="7"/>
+      <c r="DL25" s="7"/>
+      <c r="DM25" s="7"/>
+      <c r="DN25" s="7"/>
+      <c r="DO25" s="7"/>
+      <c r="DP25" s="7"/>
+      <c r="DQ25" s="7"/>
+      <c r="DR25" s="7"/>
+      <c r="DS25" s="7"/>
+      <c r="DT25" s="7"/>
+      <c r="DU25" s="7"/>
+      <c r="DV25" s="7"/>
+      <c r="DW25" s="7"/>
+      <c r="DX25" s="7"/>
+      <c r="DY25" s="7"/>
+      <c r="DZ25" s="7"/>
+      <c r="EA25" s="7"/>
+      <c r="EB25" s="7"/>
+      <c r="EC25" s="7"/>
+      <c r="ED25" s="7"/>
+      <c r="EE25" s="7"/>
+      <c r="EF25" s="7"/>
+      <c r="EG25" s="7"/>
+      <c r="EH25" s="7"/>
+      <c r="EI25" s="7"/>
+      <c r="EJ25" s="7"/>
+      <c r="EK25" s="7"/>
+      <c r="EL25" s="7"/>
+      <c r="EM25" s="7"/>
+      <c r="EN25" s="7"/>
+      <c r="EO25" s="7"/>
+    </row>
+    <row r="26" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45967.700783148146</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BY26" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="BZ26" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA26" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="CB26" s="7"/>
+      <c r="CC26" s="7"/>
+      <c r="CD26" s="7"/>
+      <c r="CE26" s="7"/>
+      <c r="CF26" s="7"/>
+      <c r="CG26" s="7"/>
+      <c r="CH26" s="7"/>
+      <c r="CI26" s="7"/>
+      <c r="CJ26" s="7"/>
+      <c r="CK26" s="7"/>
+      <c r="CL26" s="7"/>
+      <c r="CM26" s="7"/>
+      <c r="CN26" s="7"/>
+      <c r="CO26" s="7"/>
+      <c r="CP26" s="7"/>
+      <c r="CQ26" s="7"/>
+      <c r="CR26" s="7"/>
+      <c r="CS26" s="7"/>
+      <c r="CT26" s="7"/>
+      <c r="CU26" s="7"/>
+      <c r="CV26" s="7"/>
+      <c r="CW26" s="7"/>
+      <c r="CX26" s="7"/>
+      <c r="CY26" s="7"/>
+      <c r="CZ26" s="7"/>
+      <c r="DA26" s="7"/>
+      <c r="DB26" s="7"/>
+      <c r="DC26" s="7"/>
+      <c r="DD26" s="7"/>
+      <c r="DE26" s="7"/>
+      <c r="DF26" s="7"/>
+      <c r="DG26" s="7"/>
+      <c r="DH26" s="7"/>
+      <c r="DI26" s="7"/>
+      <c r="DJ26" s="7"/>
+      <c r="DK26" s="7"/>
+      <c r="DL26" s="7"/>
+      <c r="DM26" s="7"/>
+      <c r="DN26" s="7"/>
+      <c r="DO26" s="7"/>
+      <c r="DP26" s="7"/>
+      <c r="DQ26" s="7"/>
+      <c r="DR26" s="7"/>
+      <c r="DS26" s="7"/>
+      <c r="DT26" s="7"/>
+      <c r="DU26" s="7"/>
+      <c r="DV26" s="7"/>
+      <c r="DW26" s="7"/>
+      <c r="DX26" s="7"/>
+      <c r="DY26" s="7"/>
+      <c r="DZ26" s="7"/>
+      <c r="EA26" s="7"/>
+      <c r="EB26" s="7"/>
+      <c r="EC26" s="7"/>
+      <c r="ED26" s="7"/>
+      <c r="EE26" s="7"/>
+      <c r="EF26" s="7"/>
+      <c r="EG26" s="7"/>
+      <c r="EH26" s="7"/>
+      <c r="EI26" s="7"/>
+      <c r="EJ26" s="7"/>
+      <c r="EK26" s="7"/>
+      <c r="EL26" s="7"/>
+      <c r="EM26" s="7"/>
+      <c r="EN26" s="7"/>
+      <c r="EO26" s="7"/>
+    </row>
+    <row r="27" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="6">
+        <v>45967.701247789351</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB27" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="CC27" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="CD27" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="CE27" s="7"/>
+      <c r="CF27" s="7"/>
+      <c r="CG27" s="7"/>
+      <c r="CH27" s="7"/>
+      <c r="CI27" s="7"/>
+      <c r="CJ27" s="7"/>
+      <c r="CK27" s="7"/>
+      <c r="CL27" s="7"/>
+      <c r="CM27" s="7"/>
+      <c r="CN27" s="7"/>
+      <c r="CO27" s="7"/>
+      <c r="CP27" s="7"/>
+      <c r="CQ27" s="7"/>
+      <c r="CR27" s="7"/>
+      <c r="CS27" s="7"/>
+      <c r="CT27" s="7"/>
+      <c r="CU27" s="7"/>
+      <c r="CV27" s="7"/>
+      <c r="CW27" s="7"/>
+      <c r="CX27" s="7"/>
+      <c r="CY27" s="7"/>
+      <c r="CZ27" s="7"/>
+      <c r="DA27" s="7"/>
+      <c r="DB27" s="7"/>
+      <c r="DC27" s="7"/>
+      <c r="DD27" s="7"/>
+      <c r="DE27" s="7"/>
+      <c r="DF27" s="7"/>
+      <c r="DG27" s="7"/>
+      <c r="DH27" s="7"/>
+      <c r="DI27" s="7"/>
+      <c r="DJ27" s="7"/>
+      <c r="DK27" s="7"/>
+      <c r="DL27" s="7"/>
+      <c r="DM27" s="7"/>
+      <c r="DN27" s="7"/>
+      <c r="DO27" s="7"/>
+      <c r="DP27" s="7"/>
+      <c r="DQ27" s="7"/>
+      <c r="DR27" s="7"/>
+      <c r="DS27" s="7"/>
+      <c r="DT27" s="7"/>
+      <c r="DU27" s="7"/>
+      <c r="DV27" s="7"/>
+      <c r="DW27" s="7"/>
+      <c r="DX27" s="7"/>
+      <c r="DY27" s="7"/>
+      <c r="DZ27" s="7"/>
+      <c r="EA27" s="7"/>
+      <c r="EB27" s="7"/>
+      <c r="EC27" s="7"/>
+      <c r="ED27" s="7"/>
+      <c r="EE27" s="7"/>
+      <c r="EF27" s="7"/>
+      <c r="EG27" s="7"/>
+      <c r="EH27" s="7"/>
+      <c r="EI27" s="7"/>
+      <c r="EJ27" s="7"/>
+      <c r="EK27" s="7"/>
+      <c r="EL27" s="7"/>
+      <c r="EM27" s="7"/>
+      <c r="EN27" s="7"/>
+      <c r="EO27" s="7"/>
+    </row>
+    <row r="28" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="6">
+        <v>45967.702184699076</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1207</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="CE28" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF28" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="CG28" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="CH28" s="7"/>
+      <c r="CI28" s="7"/>
+      <c r="CJ28" s="7"/>
+      <c r="CK28" s="7"/>
+      <c r="CL28" s="7"/>
+      <c r="CM28" s="7"/>
+      <c r="CN28" s="7"/>
+      <c r="CO28" s="7"/>
+      <c r="CP28" s="7"/>
+      <c r="CQ28" s="7"/>
+      <c r="CR28" s="7"/>
+      <c r="CS28" s="7"/>
+      <c r="CT28" s="7"/>
+      <c r="CU28" s="7"/>
+      <c r="CV28" s="7"/>
+      <c r="CW28" s="7"/>
+      <c r="CX28" s="7"/>
+      <c r="CY28" s="7"/>
+      <c r="CZ28" s="7"/>
+      <c r="DA28" s="7"/>
+      <c r="DB28" s="7"/>
+      <c r="DC28" s="7"/>
+      <c r="DD28" s="7"/>
+      <c r="DE28" s="7"/>
+      <c r="DF28" s="7"/>
+      <c r="DG28" s="7"/>
+      <c r="DH28" s="7"/>
+      <c r="DI28" s="7"/>
+      <c r="DJ28" s="7"/>
+      <c r="DK28" s="7"/>
+      <c r="DL28" s="7"/>
+      <c r="DM28" s="7"/>
+      <c r="DN28" s="7"/>
+      <c r="DO28" s="7"/>
+      <c r="DP28" s="7"/>
+      <c r="DQ28" s="7"/>
+      <c r="DR28" s="7"/>
+      <c r="DS28" s="7"/>
+      <c r="DT28" s="7"/>
+      <c r="DU28" s="7"/>
+      <c r="DV28" s="7"/>
+      <c r="DW28" s="7"/>
+      <c r="DX28" s="7"/>
+      <c r="DY28" s="7"/>
+      <c r="DZ28" s="7"/>
+      <c r="EA28" s="7"/>
+      <c r="EB28" s="7"/>
+      <c r="EC28" s="7"/>
+      <c r="ED28" s="7"/>
+      <c r="EE28" s="7"/>
+      <c r="EF28" s="7"/>
+      <c r="EG28" s="7"/>
+      <c r="EH28" s="7"/>
+      <c r="EI28" s="7"/>
+      <c r="EJ28" s="7"/>
+      <c r="EK28" s="7"/>
+      <c r="EL28" s="7"/>
+      <c r="EM28" s="7"/>
+      <c r="EN28" s="7"/>
+      <c r="EO28" s="7"/>
+    </row>
+    <row r="29" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="6">
+        <v>45967.722861168979</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="CH29" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="CI29" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="CJ29" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="CK29" s="7"/>
+      <c r="CL29" s="7"/>
+      <c r="CM29" s="7"/>
+      <c r="CN29" s="7"/>
+      <c r="CO29" s="7"/>
+      <c r="CP29" s="7"/>
+      <c r="CQ29" s="7"/>
+      <c r="CR29" s="7"/>
+      <c r="CS29" s="7"/>
+      <c r="CT29" s="7"/>
+      <c r="CU29" s="7"/>
+      <c r="CV29" s="7"/>
+      <c r="CW29" s="7"/>
+      <c r="CX29" s="7"/>
+      <c r="CY29" s="7"/>
+      <c r="CZ29" s="7"/>
+      <c r="DA29" s="7"/>
+      <c r="DB29" s="7"/>
+      <c r="DC29" s="7"/>
+      <c r="DD29" s="7"/>
+      <c r="DE29" s="7"/>
+      <c r="DF29" s="7"/>
+      <c r="DG29" s="7"/>
+      <c r="DH29" s="7"/>
+      <c r="DI29" s="7"/>
+      <c r="DJ29" s="7"/>
+      <c r="DK29" s="7"/>
+      <c r="DL29" s="7"/>
+      <c r="DM29" s="7"/>
+      <c r="DN29" s="7"/>
+      <c r="DO29" s="7"/>
+      <c r="DP29" s="7"/>
+      <c r="DQ29" s="7"/>
+      <c r="DR29" s="7"/>
+      <c r="DS29" s="7"/>
+      <c r="DT29" s="7"/>
+      <c r="DU29" s="7"/>
+      <c r="DV29" s="7"/>
+      <c r="DW29" s="7"/>
+      <c r="DX29" s="7"/>
+      <c r="DY29" s="7"/>
+      <c r="DZ29" s="7"/>
+      <c r="EA29" s="7"/>
+      <c r="EB29" s="7"/>
+      <c r="EC29" s="7"/>
+      <c r="ED29" s="7"/>
+      <c r="EE29" s="7"/>
+      <c r="EF29" s="7"/>
+      <c r="EG29" s="7"/>
+      <c r="EH29" s="7"/>
+      <c r="EI29" s="7"/>
+      <c r="EJ29" s="7"/>
+      <c r="EK29" s="7"/>
+      <c r="EL29" s="7"/>
+      <c r="EM29" s="7"/>
+      <c r="EN29" s="7"/>
+      <c r="EO29" s="7"/>
+    </row>
+    <row r="30" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="6">
+        <v>45967.728658009262</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="CK30" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="CL30" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="CM30" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="CN30" s="7"/>
+      <c r="CO30" s="7"/>
+      <c r="CP30" s="7"/>
+      <c r="CQ30" s="7"/>
+      <c r="CR30" s="7"/>
+      <c r="CS30" s="7"/>
+      <c r="CT30" s="7"/>
+      <c r="CU30" s="7"/>
+      <c r="CV30" s="7"/>
+      <c r="CW30" s="7"/>
+      <c r="CX30" s="7"/>
+      <c r="CY30" s="7"/>
+      <c r="CZ30" s="7"/>
+      <c r="DA30" s="7"/>
+      <c r="DB30" s="7"/>
+      <c r="DC30" s="7"/>
+      <c r="DD30" s="7"/>
+      <c r="DE30" s="7"/>
+      <c r="DF30" s="7"/>
+      <c r="DG30" s="7"/>
+      <c r="DH30" s="7"/>
+      <c r="DI30" s="7"/>
+      <c r="DJ30" s="7"/>
+      <c r="DK30" s="7"/>
+      <c r="DL30" s="7"/>
+      <c r="DM30" s="7"/>
+      <c r="DN30" s="7"/>
+      <c r="DO30" s="7"/>
+      <c r="DP30" s="7"/>
+      <c r="DQ30" s="7"/>
+      <c r="DR30" s="7"/>
+      <c r="DS30" s="7"/>
+      <c r="DT30" s="7"/>
+      <c r="DU30" s="7"/>
+      <c r="DV30" s="7"/>
+      <c r="DW30" s="7"/>
+      <c r="DX30" s="7"/>
+      <c r="DY30" s="7"/>
+      <c r="DZ30" s="7"/>
+      <c r="EA30" s="7"/>
+      <c r="EB30" s="7"/>
+      <c r="EC30" s="7"/>
+      <c r="ED30" s="7"/>
+      <c r="EE30" s="7"/>
+      <c r="EF30" s="7"/>
+      <c r="EG30" s="7"/>
+      <c r="EH30" s="7"/>
+      <c r="EI30" s="7"/>
+      <c r="EJ30" s="7"/>
+      <c r="EK30" s="7"/>
+      <c r="EL30" s="7"/>
+      <c r="EM30" s="7"/>
+      <c r="EN30" s="7"/>
+      <c r="EO30" s="7"/>
+    </row>
+    <row r="31" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B31" s="6">
+        <v>45967.735769641207</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="CN31" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="CO31" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP31" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="CQ31" s="7"/>
+      <c r="CR31" s="7"/>
+      <c r="CS31" s="7"/>
+      <c r="CT31" s="7"/>
+      <c r="CU31" s="7"/>
+      <c r="CV31" s="7"/>
+      <c r="CW31" s="7"/>
+      <c r="CX31" s="7"/>
+      <c r="CY31" s="7"/>
+      <c r="CZ31" s="7"/>
+      <c r="DA31" s="7"/>
+      <c r="DB31" s="7"/>
+      <c r="DC31" s="7"/>
+      <c r="DD31" s="7"/>
+      <c r="DE31" s="7"/>
+      <c r="DF31" s="7"/>
+      <c r="DG31" s="7"/>
+      <c r="DH31" s="7"/>
+      <c r="DI31" s="7"/>
+      <c r="DJ31" s="7"/>
+      <c r="DK31" s="7"/>
+      <c r="DL31" s="7"/>
+      <c r="DM31" s="7"/>
+      <c r="DN31" s="7"/>
+      <c r="DO31" s="7"/>
+      <c r="DP31" s="7"/>
+      <c r="DQ31" s="7"/>
+      <c r="DR31" s="7"/>
+      <c r="DS31" s="7"/>
+      <c r="DT31" s="7"/>
+      <c r="DU31" s="7"/>
+      <c r="DV31" s="7"/>
+      <c r="DW31" s="7"/>
+      <c r="DX31" s="7"/>
+      <c r="DY31" s="7"/>
+      <c r="DZ31" s="7"/>
+      <c r="EA31" s="7"/>
+      <c r="EB31" s="7"/>
+      <c r="EC31" s="7"/>
+      <c r="ED31" s="7"/>
+      <c r="EE31" s="7"/>
+      <c r="EF31" s="7"/>
+      <c r="EG31" s="7"/>
+      <c r="EH31" s="7"/>
+      <c r="EI31" s="7"/>
+      <c r="EJ31" s="7"/>
+      <c r="EK31" s="7"/>
+      <c r="EL31" s="7"/>
+      <c r="EM31" s="7"/>
+      <c r="EN31" s="7"/>
+      <c r="EO31" s="7"/>
+    </row>
+    <row r="32" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B32" s="6">
+        <v>45967.739522534721</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="CQ32" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="CR32" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="CS32" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="CT32" s="7"/>
+      <c r="CU32" s="7"/>
+      <c r="CV32" s="7"/>
+      <c r="CW32" s="7"/>
+      <c r="CX32" s="7"/>
+      <c r="CY32" s="7"/>
+      <c r="CZ32" s="7"/>
+      <c r="DA32" s="7"/>
+      <c r="DB32" s="7"/>
+      <c r="DC32" s="7"/>
+      <c r="DD32" s="7"/>
+      <c r="DE32" s="7"/>
+      <c r="DF32" s="7"/>
+      <c r="DG32" s="7"/>
+      <c r="DH32" s="7"/>
+      <c r="DI32" s="7"/>
+      <c r="DJ32" s="7"/>
+      <c r="DK32" s="7"/>
+      <c r="DL32" s="7"/>
+      <c r="DM32" s="7"/>
+      <c r="DN32" s="7"/>
+      <c r="DO32" s="7"/>
+      <c r="DP32" s="7"/>
+      <c r="DQ32" s="7"/>
+      <c r="DR32" s="7"/>
+      <c r="DS32" s="7"/>
+      <c r="DT32" s="7"/>
+      <c r="DU32" s="7"/>
+      <c r="DV32" s="7"/>
+      <c r="DW32" s="7"/>
+      <c r="DX32" s="7"/>
+      <c r="DY32" s="7"/>
+      <c r="DZ32" s="7"/>
+      <c r="EA32" s="7"/>
+      <c r="EB32" s="7"/>
+      <c r="EC32" s="7"/>
+      <c r="ED32" s="7"/>
+      <c r="EE32" s="7"/>
+      <c r="EF32" s="7"/>
+      <c r="EG32" s="7"/>
+      <c r="EH32" s="7"/>
+      <c r="EI32" s="7"/>
+      <c r="EJ32" s="7"/>
+      <c r="EK32" s="7"/>
+      <c r="EL32" s="7"/>
+      <c r="EM32" s="7"/>
+      <c r="EN32" s="7"/>
+      <c r="EO32" s="7"/>
+    </row>
+    <row r="33" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B33" s="6">
+        <v>45967.765654224539</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT33" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="CU33" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="CV33" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="CW33" s="7"/>
+      <c r="CX33" s="7"/>
+      <c r="CY33" s="7"/>
+      <c r="CZ33" s="7"/>
+      <c r="DA33" s="7"/>
+      <c r="DB33" s="7"/>
+      <c r="DC33" s="7"/>
+      <c r="DD33" s="7"/>
+      <c r="DE33" s="7"/>
+      <c r="DF33" s="7"/>
+      <c r="DG33" s="7"/>
+      <c r="DH33" s="7"/>
+      <c r="DI33" s="7"/>
+      <c r="DJ33" s="7"/>
+      <c r="DK33" s="7"/>
+      <c r="DL33" s="7"/>
+      <c r="DM33" s="7"/>
+      <c r="DN33" s="7"/>
+      <c r="DO33" s="7"/>
+      <c r="DP33" s="7"/>
+      <c r="DQ33" s="7"/>
+      <c r="DR33" s="7"/>
+      <c r="DS33" s="7"/>
+      <c r="DT33" s="7"/>
+      <c r="DU33" s="7"/>
+      <c r="DV33" s="7"/>
+      <c r="DW33" s="7"/>
+      <c r="DX33" s="7"/>
+      <c r="DY33" s="7"/>
+      <c r="DZ33" s="7"/>
+      <c r="EA33" s="7"/>
+      <c r="EB33" s="7"/>
+      <c r="EC33" s="7"/>
+      <c r="ED33" s="7"/>
+      <c r="EE33" s="7"/>
+      <c r="EF33" s="7"/>
+      <c r="EG33" s="7"/>
+      <c r="EH33" s="7"/>
+      <c r="EI33" s="7"/>
+      <c r="EJ33" s="7"/>
+      <c r="EK33" s="7"/>
+      <c r="EL33" s="7"/>
+      <c r="EM33" s="7"/>
+      <c r="EN33" s="7"/>
+      <c r="EO33" s="7"/>
+    </row>
+    <row r="34" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B34" s="6">
+        <v>45967.767303125001</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="CW34" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="CX34" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="CY34" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="CZ34" s="7"/>
+      <c r="DA34" s="7"/>
+      <c r="DB34" s="7"/>
+      <c r="DC34" s="7"/>
+      <c r="DD34" s="7"/>
+      <c r="DE34" s="7"/>
+      <c r="DF34" s="7"/>
+      <c r="DG34" s="7"/>
+      <c r="DH34" s="7"/>
+      <c r="DI34" s="7"/>
+      <c r="DJ34" s="7"/>
+      <c r="DK34" s="7"/>
+      <c r="DL34" s="7"/>
+      <c r="DM34" s="7"/>
+      <c r="DN34" s="7"/>
+      <c r="DO34" s="7"/>
+      <c r="DP34" s="7"/>
+      <c r="DQ34" s="7"/>
+      <c r="DR34" s="7"/>
+      <c r="DS34" s="7"/>
+      <c r="DT34" s="7"/>
+      <c r="DU34" s="7"/>
+      <c r="DV34" s="7"/>
+      <c r="DW34" s="7"/>
+      <c r="DX34" s="7"/>
+      <c r="DY34" s="7"/>
+      <c r="DZ34" s="7"/>
+      <c r="EA34" s="7"/>
+      <c r="EB34" s="7"/>
+      <c r="EC34" s="7"/>
+      <c r="ED34" s="7"/>
+      <c r="EE34" s="7"/>
+      <c r="EF34" s="7"/>
+      <c r="EG34" s="7"/>
+      <c r="EH34" s="7"/>
+      <c r="EI34" s="7"/>
+      <c r="EJ34" s="7"/>
+      <c r="EK34" s="7"/>
+      <c r="EL34" s="7"/>
+      <c r="EM34" s="7"/>
+      <c r="EN34" s="7"/>
+      <c r="EO34" s="7"/>
+    </row>
+    <row r="35" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B35" s="6">
+        <v>45967.771815405096</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="CZ35" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="DA35" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="DB35" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="DC35" s="7"/>
+      <c r="DD35" s="7"/>
+      <c r="DE35" s="7"/>
+      <c r="DF35" s="7"/>
+      <c r="DG35" s="7"/>
+      <c r="DH35" s="7"/>
+      <c r="DI35" s="7"/>
+      <c r="DJ35" s="7"/>
+      <c r="DK35" s="7"/>
+      <c r="DL35" s="7"/>
+      <c r="DM35" s="7"/>
+      <c r="DN35" s="7"/>
+      <c r="DO35" s="7"/>
+      <c r="DP35" s="7"/>
+      <c r="DQ35" s="7"/>
+      <c r="DR35" s="7"/>
+      <c r="DS35" s="7"/>
+      <c r="DT35" s="7"/>
+      <c r="DU35" s="7"/>
+      <c r="DV35" s="7"/>
+      <c r="DW35" s="7"/>
+      <c r="DX35" s="7"/>
+      <c r="DY35" s="7"/>
+      <c r="DZ35" s="7"/>
+      <c r="EA35" s="7"/>
+      <c r="EB35" s="7"/>
+      <c r="EC35" s="7"/>
+      <c r="ED35" s="7"/>
+      <c r="EE35" s="7"/>
+      <c r="EF35" s="7"/>
+      <c r="EG35" s="7"/>
+      <c r="EH35" s="7"/>
+      <c r="EI35" s="7"/>
+      <c r="EJ35" s="7"/>
+      <c r="EK35" s="7"/>
+      <c r="EL35" s="7"/>
+      <c r="EM35" s="7"/>
+      <c r="EN35" s="7"/>
+      <c r="EO35" s="7"/>
+    </row>
+    <row r="36" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" s="6">
+        <v>45967.79326017361</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="DC36" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="DD36" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="DE36" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="DF36" s="7"/>
+      <c r="DG36" s="7"/>
+      <c r="DH36" s="7"/>
+      <c r="DI36" s="7"/>
+      <c r="DJ36" s="7"/>
+      <c r="DK36" s="7"/>
+      <c r="DL36" s="7"/>
+      <c r="DM36" s="7"/>
+      <c r="DN36" s="7"/>
+      <c r="DO36" s="7"/>
+      <c r="DP36" s="7"/>
+      <c r="DQ36" s="7"/>
+      <c r="DR36" s="7"/>
+      <c r="DS36" s="7"/>
+      <c r="DT36" s="7"/>
+      <c r="DU36" s="7"/>
+      <c r="DV36" s="7"/>
+      <c r="DW36" s="7"/>
+      <c r="DX36" s="7"/>
+      <c r="DY36" s="7"/>
+      <c r="DZ36" s="7"/>
+      <c r="EA36" s="7"/>
+      <c r="EB36" s="7"/>
+      <c r="EC36" s="7"/>
+      <c r="ED36" s="7"/>
+      <c r="EE36" s="7"/>
+      <c r="EF36" s="7"/>
+      <c r="EG36" s="7"/>
+      <c r="EH36" s="7"/>
+      <c r="EI36" s="7"/>
+      <c r="EJ36" s="7"/>
+      <c r="EK36" s="7"/>
+      <c r="EL36" s="7"/>
+      <c r="EM36" s="7"/>
+      <c r="EN36" s="7"/>
+      <c r="EO36" s="7"/>
+    </row>
+    <row r="37" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B37" s="6">
+        <v>45967.80944621528</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="DF37" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="DG37" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="DH37" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="DI37" s="7"/>
+      <c r="DJ37" s="7"/>
+      <c r="DK37" s="7"/>
+      <c r="DL37" s="7"/>
+      <c r="DM37" s="7"/>
+      <c r="DN37" s="7"/>
+      <c r="DO37" s="7"/>
+      <c r="DP37" s="7"/>
+      <c r="DQ37" s="7"/>
+      <c r="DR37" s="7"/>
+      <c r="DS37" s="7"/>
+      <c r="DT37" s="7"/>
+      <c r="DU37" s="7"/>
+      <c r="DV37" s="7"/>
+      <c r="DW37" s="7"/>
+      <c r="DX37" s="7"/>
+      <c r="DY37" s="7"/>
+      <c r="DZ37" s="7"/>
+      <c r="EA37" s="7"/>
+      <c r="EB37" s="7"/>
+      <c r="EC37" s="7"/>
+      <c r="ED37" s="7"/>
+      <c r="EE37" s="7"/>
+      <c r="EF37" s="7"/>
+      <c r="EG37" s="7"/>
+      <c r="EH37" s="7"/>
+      <c r="EI37" s="7"/>
+      <c r="EJ37" s="7"/>
+      <c r="EK37" s="7"/>
+      <c r="EL37" s="7"/>
+      <c r="EM37" s="7"/>
+      <c r="EN37" s="7"/>
+      <c r="EO37" s="7"/>
+    </row>
+    <row r="38" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" s="6">
+        <v>45967.829439155088</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="DI38" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="DJ38" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="DK38" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="DL38" s="7"/>
+      <c r="DM38" s="7"/>
+      <c r="DN38" s="7"/>
+      <c r="DO38" s="7"/>
+      <c r="DP38" s="7"/>
+      <c r="DQ38" s="7"/>
+      <c r="DR38" s="7"/>
+      <c r="DS38" s="7"/>
+      <c r="DT38" s="7"/>
+      <c r="DU38" s="7"/>
+      <c r="DV38" s="7"/>
+      <c r="DW38" s="7"/>
+      <c r="DX38" s="7"/>
+      <c r="DY38" s="7"/>
+      <c r="DZ38" s="7"/>
+      <c r="EA38" s="7"/>
+      <c r="EB38" s="7"/>
+      <c r="EC38" s="7"/>
+      <c r="ED38" s="7"/>
+      <c r="EE38" s="7"/>
+      <c r="EF38" s="7"/>
+      <c r="EG38" s="7"/>
+      <c r="EH38" s="7"/>
+      <c r="EI38" s="7"/>
+      <c r="EJ38" s="7"/>
+      <c r="EK38" s="7"/>
+      <c r="EL38" s="7"/>
+      <c r="EM38" s="7"/>
+      <c r="EN38" s="7"/>
+      <c r="EO38" s="7"/>
+    </row>
+    <row r="39" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B39" s="6">
+        <v>45967.856024340275</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="DL39" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="DM39" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="DN39" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="DO39" s="7"/>
+      <c r="DP39" s="7"/>
+      <c r="DQ39" s="7"/>
+      <c r="DR39" s="7"/>
+      <c r="DS39" s="7"/>
+      <c r="DT39" s="7"/>
+      <c r="DU39" s="7"/>
+      <c r="DV39" s="7"/>
+      <c r="DW39" s="7"/>
+      <c r="DX39" s="7"/>
+      <c r="DY39" s="7"/>
+      <c r="DZ39" s="7"/>
+      <c r="EA39" s="7"/>
+      <c r="EB39" s="7"/>
+      <c r="EC39" s="7"/>
+      <c r="ED39" s="7"/>
+      <c r="EE39" s="7"/>
+      <c r="EF39" s="7"/>
+      <c r="EG39" s="7"/>
+      <c r="EH39" s="7"/>
+      <c r="EI39" s="7"/>
+      <c r="EJ39" s="7"/>
+      <c r="EK39" s="7"/>
+      <c r="EL39" s="7"/>
+      <c r="EM39" s="7"/>
+      <c r="EN39" s="7"/>
+      <c r="EO39" s="7"/>
+    </row>
+    <row r="40" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B40" s="6">
+        <v>45967.874863263889</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DO40" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="DP40" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="DQ40" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="DR40" s="7"/>
+      <c r="DS40" s="7"/>
+      <c r="DT40" s="7"/>
+      <c r="DU40" s="7"/>
+      <c r="DV40" s="7"/>
+      <c r="DW40" s="7"/>
+      <c r="DX40" s="7"/>
+      <c r="DY40" s="7"/>
+      <c r="DZ40" s="7"/>
+      <c r="EA40" s="7"/>
+      <c r="EB40" s="7"/>
+      <c r="EC40" s="7"/>
+      <c r="ED40" s="7"/>
+      <c r="EE40" s="7"/>
+      <c r="EF40" s="7"/>
+      <c r="EG40" s="7"/>
+      <c r="EH40" s="7"/>
+      <c r="EI40" s="7"/>
+      <c r="EJ40" s="7"/>
+      <c r="EK40" s="7"/>
+      <c r="EL40" s="7"/>
+      <c r="EM40" s="7"/>
+      <c r="EN40" s="7"/>
+      <c r="EO40" s="7"/>
+    </row>
+    <row r="41" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B41" s="6">
+        <v>45967.876826226857</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DR41" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="DS41" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="DT41" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="DU41" s="7"/>
+      <c r="DV41" s="7"/>
+      <c r="DW41" s="7"/>
+      <c r="DX41" s="7"/>
+      <c r="DY41" s="7"/>
+      <c r="DZ41" s="7"/>
+      <c r="EA41" s="7"/>
+      <c r="EB41" s="7"/>
+      <c r="EC41" s="7"/>
+      <c r="ED41" s="7"/>
+      <c r="EE41" s="7"/>
+      <c r="EF41" s="7"/>
+      <c r="EG41" s="7"/>
+      <c r="EH41" s="7"/>
+      <c r="EI41" s="7"/>
+      <c r="EJ41" s="7"/>
+      <c r="EK41" s="7"/>
+      <c r="EL41" s="7"/>
+      <c r="EM41" s="7"/>
+      <c r="EN41" s="7"/>
+      <c r="EO41" s="7"/>
+    </row>
+    <row r="42" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B42" s="6">
+        <v>45967.879161249999</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="DU42" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="DV42" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="DW42" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="DX42" s="7"/>
+      <c r="DY42" s="7"/>
+      <c r="DZ42" s="7"/>
+      <c r="EA42" s="7"/>
+      <c r="EB42" s="7"/>
+      <c r="EC42" s="7"/>
+      <c r="ED42" s="7"/>
+      <c r="EE42" s="7"/>
+      <c r="EF42" s="7"/>
+      <c r="EG42" s="7"/>
+      <c r="EH42" s="7"/>
+      <c r="EI42" s="7"/>
+      <c r="EJ42" s="7"/>
+      <c r="EK42" s="7"/>
+      <c r="EL42" s="7"/>
+      <c r="EM42" s="7"/>
+      <c r="EN42" s="7"/>
+      <c r="EO42" s="7"/>
+    </row>
+    <row r="43" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B43" s="6">
+        <v>45967.888289305556</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="DX43" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="DY43" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="DZ43" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="EA43" s="7"/>
+      <c r="EB43" s="7"/>
+      <c r="EC43" s="7"/>
+      <c r="ED43" s="7"/>
+      <c r="EE43" s="7"/>
+      <c r="EF43" s="7"/>
+      <c r="EG43" s="7"/>
+      <c r="EH43" s="7"/>
+      <c r="EI43" s="7"/>
+      <c r="EJ43" s="7"/>
+      <c r="EK43" s="7"/>
+      <c r="EL43" s="7"/>
+      <c r="EM43" s="7"/>
+      <c r="EN43" s="7"/>
+      <c r="EO43" s="7"/>
+    </row>
+    <row r="44" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B44" s="6">
+        <v>45967.892209641199</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E44" s="7">
+        <v>8893</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="EA44" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="EB44" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="EC44" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="ED44" s="7"/>
+      <c r="EE44" s="7"/>
+      <c r="EF44" s="7"/>
+      <c r="EG44" s="7"/>
+      <c r="EH44" s="7"/>
+      <c r="EI44" s="7"/>
+      <c r="EJ44" s="7"/>
+      <c r="EK44" s="7"/>
+      <c r="EL44" s="7"/>
+      <c r="EM44" s="7"/>
+      <c r="EN44" s="7"/>
+      <c r="EO44" s="7"/>
+    </row>
+    <row r="45" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B45" s="6">
+        <v>45967.895857696756</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="ED45" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EE45" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EF45" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="EG45" s="7"/>
+      <c r="EH45" s="7"/>
+      <c r="EI45" s="7"/>
+      <c r="EJ45" s="7"/>
+      <c r="EK45" s="7"/>
+      <c r="EL45" s="7"/>
+      <c r="EM45" s="7"/>
+      <c r="EN45" s="7"/>
+      <c r="EO45" s="7"/>
+    </row>
+    <row r="46" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B46" s="6">
+        <v>45967.905962083329</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="EG46" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="EH46" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="EI46" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="EJ46" s="7"/>
+      <c r="EK46" s="7"/>
+      <c r="EL46" s="7"/>
+      <c r="EM46" s="7"/>
+      <c r="EN46" s="7"/>
+      <c r="EO46" s="7"/>
+    </row>
+    <row r="47" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B47" s="6">
+        <v>45967.910118020838</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="EJ47" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="EK47" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="EL47" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="EM47" s="7"/>
+      <c r="EN47" s="7"/>
+      <c r="EO47" s="7"/>
+    </row>
+    <row r="48" spans="1:145" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B48" s="6">
+        <v>45967.916799618055</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E48" s="7">
+        <v>110085</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="EM48" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="EN48" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="EO48" s="8" t="s">
+        <v>416</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -851,17 +7688,273 @@
     <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="L2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="J3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="L5" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="T7" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="U7" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="V7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J8" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L8" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="W8" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="X8" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="Y8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L9" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="Z9" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AA9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AB9" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J10" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K10" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L10" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="AC10" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AD10" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="AE10" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J11" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K11" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L11" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AF11" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AG11" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AH11" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J12" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K12" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L12" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AI12" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AJ12" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AK12" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J13" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K13" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L13" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="AL13" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AM13" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AN13" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J14" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K14" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L14" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AO14" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AP14" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AQ14" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J15" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K15" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="L15" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="AR15" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="AS15" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="AT15" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J16" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K16" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="L16" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AU16" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AV16" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AW16" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J17" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K17" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="L17" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AX17" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AY17" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AZ17" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J18" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K18" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="L18" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="BA18" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="BB18" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="BC18" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J19" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="K19" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="L19" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="BD19" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="BE19" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="BF19" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J20" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="K20" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="L20" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="BG20" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="BH20" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="BI20" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J21" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="K21" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="L21" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="BJ21" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="BK21" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="BL21" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J22" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="K22" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="L22" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="BM22" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="BN22" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="BO22" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="J23" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="K23" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="L23" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="BP23" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="BQ23" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="BR23" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="J24" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="K24" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="L24" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="BS24" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="BT24" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="BU24" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="J25" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="K25" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="L25" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="BV25" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="BW25" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="BX25" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="J26" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="K26" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="L26" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="BY26" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="BZ26" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="CA26" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="J27" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="K27" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="L27" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="CB27" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="CC27" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="CD27" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="J28" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="K28" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="L28" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="CE28" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="CF28" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="CG28" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="J29" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="K29" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="L29" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="CH29" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="CI29" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="CJ29" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="J30" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="K30" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="L30" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="CK30" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="CL30" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="CM30" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="J31" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="K31" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="L31" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="CN31" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="CO31" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="CP31" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="J32" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="K32" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="L32" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="CQ32" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="CR32" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="CS32" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="J33" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="K33" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="L33" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="CT33" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="CU33" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="CV33" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="J34" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="K34" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="L34" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="CW34" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="CX34" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="CY34" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="J35" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="K35" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="L35" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="CZ35" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="DA35" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="DB35" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="J36" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="K36" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="L36" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="DC36" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="DD36" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="DE36" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="J37" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="K37" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="L37" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="DF37" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="DG37" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="DH37" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="J38" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="K38" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="L38" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="DI38" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="DJ38" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="DK38" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="J39" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="K39" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="L39" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="DL39" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="DM39" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="DN39" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="J40" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="K40" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="L40" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="DO40" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="DP40" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="DQ40" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="J41" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="K41" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="L41" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="DR41" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="DS41" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="DT41" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="J42" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="K42" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="L42" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="DU42" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="DV42" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="DW42" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="J43" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="K43" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="L43" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="DX43" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="DY43" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="DZ43" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="J44" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="K44" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="L44" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="EA44" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="EB44" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="EC44" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="J45" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="K45" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="L45" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="ED45" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="EE45" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="EF45" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="J46" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="K46" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="L46" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="EG46" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="EH46" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="EI46" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="J47" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="K47" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="L47" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="EJ47" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="EK47" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="EL47" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="J48" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="K48" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="L48" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="EM48" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="EN48" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="EO48" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId268"/>
   </tableParts>
 </worksheet>
 </file>